--- a/dataset/N電腦周邊2013123120221231.xlsx
+++ b/dataset/N電腦周邊2013123120221231.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouchenghan/python/TEJPredict/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51C4C37-CDB3-E446-877E-03D6ED60BC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B2097-22DA-1C44-B577-639A8A7CB7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$W$590</definedName>
     <definedName name="XX_TEJ1">工作表1!$A$1:$U$590</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -795,7 +796,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="86">
   <si>
     <t>營業毛利率</t>
   </si>
@@ -1061,6 +1062,14 @@
   </si>
   <si>
     <t>2357 華碩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3416 融程電</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3515 華擎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1448,10 +1457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:W1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1614,7 +1624,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" hidden="1">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1685,7 +1695,7 @@
         <v>-19.34</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" hidden="1">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1756,7 +1766,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" hidden="1">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1827,7 +1837,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" hidden="1">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1898,7 +1908,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" hidden="1">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1969,7 +1979,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" hidden="1">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -2040,7 +2050,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" hidden="1">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
@@ -2108,7 +2118,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" hidden="1">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2179,7 +2189,7 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" hidden="1">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2250,7 +2260,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" hidden="1">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2321,7 +2331,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" hidden="1">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2389,7 +2399,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" hidden="1">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2457,7 +2467,7 @@
         <v>5.93</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" hidden="1">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -2528,7 +2538,7 @@
         <v>-2.08</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" hidden="1">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -2599,7 +2609,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" hidden="1">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -2667,7 +2677,7 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" hidden="1">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -2738,7 +2748,7 @@
         <v>18.23</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" hidden="1">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -2809,7 +2819,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" hidden="1">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -2877,7 +2887,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" hidden="1">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -2945,7 +2955,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" hidden="1">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -3016,7 +3026,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" hidden="1">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -3087,7 +3097,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" hidden="1">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -3155,7 +3165,7 @@
         <v>-2.87</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" hidden="1">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -3226,7 +3236,7 @@
         <v>15.09</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" hidden="1">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -3294,7 +3304,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" hidden="1">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -3365,7 +3375,7 @@
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" hidden="1">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -3436,7 +3446,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" hidden="1">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -3507,7 +3517,7 @@
         <v>11.26</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" hidden="1">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -3578,7 +3588,7 @@
         <v>16.59</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" hidden="1">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -3649,7 +3659,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" hidden="1">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -3717,7 +3727,7 @@
         <v>-1.61</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" hidden="1">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -3790,40 +3800,40 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2">
-        <v>44925</v>
+        <v>44560</v>
       </c>
       <c r="C34" s="3">
-        <v>342985667</v>
+        <v>147110891</v>
       </c>
       <c r="D34" s="3">
-        <v>82955</v>
+        <v>40019</v>
       </c>
       <c r="E34" s="3">
-        <v>89922107</v>
+        <v>36432528</v>
       </c>
       <c r="F34" s="3">
-        <v>432907774</v>
+        <v>183543419</v>
       </c>
       <c r="G34" s="3">
-        <v>286725416</v>
+        <v>107915125</v>
       </c>
       <c r="H34" s="3">
-        <v>27529802</v>
+        <v>2754767</v>
       </c>
       <c r="I34" s="3">
-        <v>314255218</v>
+        <v>110669892</v>
       </c>
       <c r="J34" s="3">
-        <v>118652556</v>
+        <v>72873527</v>
       </c>
       <c r="K34" s="3">
-        <v>432907774</v>
+        <v>183543419</v>
       </c>
       <c r="L34" s="3">
-        <v>29016021</v>
+        <v>23508670</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -3835,33 +3845,33 @@
         <v>0</v>
       </c>
       <c r="P34" s="3">
-        <v>29016021</v>
+        <v>23508670</v>
       </c>
       <c r="Q34" s="3">
-        <v>-1491116</v>
+        <v>-3700808</v>
       </c>
       <c r="R34" s="3">
-        <v>24710914</v>
+        <v>17632247</v>
       </c>
       <c r="S34">
-        <v>29.13</v>
+        <v>41.72</v>
       </c>
       <c r="T34">
-        <v>1.93</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="U34">
-        <v>2.5099999999999998</v>
+        <v>10.7</v>
       </c>
       <c r="V34">
-        <v>7.08</v>
+        <v>18.5</v>
       </c>
       <c r="W34">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" hidden="1">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B35" s="2">
         <v>44925</v>
@@ -3927,7 +3937,7 @@
         <v>18.649999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" hidden="1">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -4000,40 +4010,40 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2">
-        <v>44925</v>
+        <v>44196</v>
       </c>
       <c r="C37" s="3">
-        <v>13993593</v>
-      </c>
-      <c r="D37">
-        <v>801</v>
+        <v>140583805</v>
+      </c>
+      <c r="D37" s="3">
+        <v>36346</v>
       </c>
       <c r="E37" s="3">
-        <v>774221</v>
+        <v>35483432</v>
       </c>
       <c r="F37" s="3">
-        <v>14767814</v>
+        <v>176067237</v>
       </c>
       <c r="G37" s="3">
-        <v>5813692</v>
+        <v>99599336</v>
       </c>
       <c r="H37" s="3">
-        <v>60195</v>
+        <v>2326387</v>
       </c>
       <c r="I37" s="3">
-        <v>5873887</v>
+        <v>101925723</v>
       </c>
       <c r="J37" s="3">
-        <v>8893927</v>
+        <v>74141514</v>
       </c>
       <c r="K37" s="3">
-        <v>14767814</v>
+        <v>176067237</v>
       </c>
       <c r="L37" s="3">
-        <v>1219930</v>
+        <v>23508670</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -4045,31 +4055,31 @@
         <v>0</v>
       </c>
       <c r="P37" s="3">
-        <v>1219930</v>
-      </c>
-      <c r="Q37">
-        <v>-12</v>
+        <v>23508670</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>-1271314</v>
       </c>
       <c r="R37" s="3">
-        <v>1430688</v>
+        <v>12601921</v>
       </c>
       <c r="S37">
-        <v>-50.13</v>
+        <v>4.5</v>
       </c>
       <c r="T37">
-        <v>7.17</v>
+        <v>6.26</v>
       </c>
       <c r="U37">
-        <v>8.36</v>
+        <v>8.02</v>
       </c>
       <c r="V37">
-        <v>21.61</v>
+        <v>17.43</v>
       </c>
       <c r="W37">
-        <v>6.92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" hidden="1">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -4137,7 +4147,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" hidden="1">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -4210,40 +4220,40 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B40" s="2">
-        <v>44925</v>
+        <v>43830</v>
       </c>
       <c r="C40" s="3">
-        <v>26965716</v>
+        <v>146852680</v>
       </c>
       <c r="D40" s="3">
-        <v>6650</v>
+        <v>38676</v>
       </c>
       <c r="E40" s="3">
-        <v>58614609</v>
+        <v>39779823</v>
       </c>
       <c r="F40" s="3">
-        <v>85580325</v>
+        <v>186632503</v>
       </c>
       <c r="G40" s="3">
-        <v>15699754</v>
+        <v>109397843</v>
       </c>
       <c r="H40" s="3">
-        <v>9187840</v>
+        <v>2593270</v>
       </c>
       <c r="I40" s="3">
-        <v>24887594</v>
+        <v>111991113</v>
       </c>
       <c r="J40" s="3">
-        <v>60692731</v>
+        <v>74641390</v>
       </c>
       <c r="K40" s="3">
-        <v>85580325</v>
+        <v>186632503</v>
       </c>
       <c r="L40" s="3">
-        <v>12065568</v>
+        <v>23508670</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -4255,31 +4265,31 @@
         <v>0</v>
       </c>
       <c r="P40" s="3">
-        <v>12065568</v>
+        <v>23508670</v>
       </c>
       <c r="Q40" s="3">
-        <v>-162874</v>
+        <v>-1271314</v>
       </c>
       <c r="R40" s="3">
-        <v>11338116</v>
+        <v>12363838</v>
       </c>
       <c r="S40">
-        <v>-22.28</v>
+        <v>18.05</v>
       </c>
       <c r="T40">
-        <v>19.440000000000001</v>
+        <v>5.29</v>
       </c>
       <c r="U40">
-        <v>23.7</v>
+        <v>6.95</v>
       </c>
       <c r="V40">
-        <v>8.02</v>
+        <v>15.36</v>
       </c>
       <c r="W40">
-        <v>-2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" hidden="1">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -4350,7 +4360,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" hidden="1">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
@@ -4421,7 +4431,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" hidden="1">
       <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
@@ -4492,7 +4502,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" hidden="1">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
@@ -4563,7 +4573,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" hidden="1">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -4634,7 +4644,7 @@
         <v>13.88</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" hidden="1">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
@@ -4705,7 +4715,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" hidden="1">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
@@ -4776,7 +4786,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" hidden="1">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -4847,7 +4857,7 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" hidden="1">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -4915,7 +4925,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" hidden="1">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
@@ -4986,7 +4996,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" hidden="1">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -5057,7 +5067,7 @@
         <v>8.89</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" hidden="1">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
@@ -5128,7 +5138,7 @@
         <v>15.74</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" hidden="1">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
@@ -5199,7 +5209,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" hidden="1">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
@@ -5270,7 +5280,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" hidden="1">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
@@ -5341,7 +5351,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" hidden="1">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -5409,7 +5419,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" hidden="1">
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
@@ -5477,7 +5487,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" hidden="1">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -5548,7 +5558,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" hidden="1">
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
@@ -5619,7 +5629,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" hidden="1">
       <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
@@ -5690,7 +5700,7 @@
         <v>10.81</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" hidden="1">
       <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
@@ -5766,34 +5776,34 @@
         <v>9</v>
       </c>
       <c r="B62" s="2">
-        <v>44560</v>
+        <v>43462</v>
       </c>
       <c r="C62" s="3">
-        <v>147110891</v>
+        <v>157984918</v>
       </c>
       <c r="D62" s="3">
-        <v>40019</v>
+        <v>41801</v>
       </c>
       <c r="E62" s="3">
-        <v>36432528</v>
+        <v>39151151</v>
       </c>
       <c r="F62" s="3">
-        <v>183543419</v>
+        <v>197136069</v>
       </c>
       <c r="G62" s="3">
-        <v>107915125</v>
+        <v>120612081</v>
       </c>
       <c r="H62" s="3">
-        <v>2754767</v>
+        <v>1845587</v>
       </c>
       <c r="I62" s="3">
-        <v>110669892</v>
+        <v>122457668</v>
       </c>
       <c r="J62" s="3">
-        <v>72873527</v>
+        <v>74678401</v>
       </c>
       <c r="K62" s="3">
-        <v>183543419</v>
+        <v>197136069</v>
       </c>
       <c r="L62" s="3">
         <v>23508670</v>
@@ -5811,28 +5821,28 @@
         <v>23508670</v>
       </c>
       <c r="Q62" s="3">
-        <v>-3700808</v>
+        <v>-1248722</v>
       </c>
       <c r="R62" s="3">
-        <v>17632247</v>
+        <v>10784121</v>
       </c>
       <c r="S62">
-        <v>41.72</v>
+        <v>202.8</v>
       </c>
       <c r="T62">
-        <v>8.4499999999999993</v>
+        <v>3.85</v>
       </c>
       <c r="U62">
-        <v>10.7</v>
+        <v>5.21</v>
       </c>
       <c r="V62">
-        <v>18.5</v>
+        <v>13.09</v>
       </c>
       <c r="W62">
-        <v>7.91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" hidden="1">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -5903,7 +5913,7 @@
         <v>-10.06</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" hidden="1">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
@@ -5974,7 +5984,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" hidden="1">
       <c r="A65" s="1" t="s">
         <v>12</v>
       </c>
@@ -6045,7 +6055,7 @@
         <v>-0.81</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" hidden="1">
       <c r="A66" s="1" t="s">
         <v>13</v>
       </c>
@@ -6116,7 +6126,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:23" hidden="1">
       <c r="A67" s="1" t="s">
         <v>14</v>
       </c>
@@ -6187,7 +6197,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" hidden="1">
       <c r="A68" s="1" t="s">
         <v>15</v>
       </c>
@@ -6258,7 +6268,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:23" hidden="1">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
@@ -6326,7 +6336,7 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:23" hidden="1">
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
@@ -6397,7 +6407,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:23" hidden="1">
       <c r="A71" s="1" t="s">
         <v>18</v>
       </c>
@@ -6468,7 +6478,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" hidden="1">
       <c r="A72" s="1" t="s">
         <v>19</v>
       </c>
@@ -6539,7 +6549,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:23" hidden="1">
       <c r="A73" s="1" t="s">
         <v>20</v>
       </c>
@@ -6607,7 +6617,7 @@
         <v>11.88</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" hidden="1">
       <c r="A74" s="1" t="s">
         <v>21</v>
       </c>
@@ -6675,7 +6685,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:23" hidden="1">
       <c r="A75" s="1" t="s">
         <v>22</v>
       </c>
@@ -6746,7 +6756,7 @@
         <v>-4.4800000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" hidden="1">
       <c r="A76" s="1" t="s">
         <v>23</v>
       </c>
@@ -6817,7 +6827,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:23" hidden="1">
       <c r="A77" s="1" t="s">
         <v>24</v>
       </c>
@@ -6885,7 +6895,7 @@
         <v>6.43</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" hidden="1">
       <c r="A78" s="1" t="s">
         <v>25</v>
       </c>
@@ -6956,7 +6966,7 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" hidden="1">
       <c r="A79" s="1" t="s">
         <v>26</v>
       </c>
@@ -7027,7 +7037,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" hidden="1">
       <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
@@ -7095,7 +7105,7 @@
         <v>7.81</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:23" hidden="1">
       <c r="A81" s="1" t="s">
         <v>28</v>
       </c>
@@ -7163,7 +7173,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" hidden="1">
       <c r="A82" s="1" t="s">
         <v>29</v>
       </c>
@@ -7234,7 +7244,7 @@
         <v>11.38</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" hidden="1">
       <c r="A83" s="1" t="s">
         <v>30</v>
       </c>
@@ -7305,7 +7315,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:23" hidden="1">
       <c r="A84" s="1" t="s">
         <v>31</v>
       </c>
@@ -7373,7 +7383,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" hidden="1">
       <c r="A85" s="1" t="s">
         <v>32</v>
       </c>
@@ -7444,7 +7454,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" hidden="1">
       <c r="A86" s="1" t="s">
         <v>33</v>
       </c>
@@ -7512,7 +7522,7 @@
         <v>-4.83</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" hidden="1">
       <c r="A87" s="1" t="s">
         <v>34</v>
       </c>
@@ -7583,7 +7593,7 @@
         <v>8.68</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" hidden="1">
       <c r="A88" s="1" t="s">
         <v>35</v>
       </c>
@@ -7654,7 +7664,7 @@
         <v>-2.3199999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" hidden="1">
       <c r="A89" s="1" t="s">
         <v>36</v>
       </c>
@@ -7725,7 +7735,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" hidden="1">
       <c r="A90" s="1" t="s">
         <v>37</v>
       </c>
@@ -7796,7 +7806,7 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:23" hidden="1">
       <c r="A91" s="1" t="s">
         <v>38</v>
       </c>
@@ -7867,7 +7877,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" hidden="1">
       <c r="A92" s="1" t="s">
         <v>39</v>
       </c>
@@ -7935,7 +7945,7 @@
         <v>-0.51</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:23" hidden="1">
       <c r="A93" s="1" t="s">
         <v>40</v>
       </c>
@@ -8008,40 +8018,40 @@
     </row>
     <row r="94" spans="1:23">
       <c r="A94" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B94" s="2">
-        <v>44560</v>
+        <v>43098</v>
       </c>
       <c r="C94" s="3">
-        <v>421786551</v>
+        <v>145063307</v>
       </c>
       <c r="D94" s="3">
-        <v>82955</v>
+        <v>55900</v>
       </c>
       <c r="E94" s="3">
-        <v>75511255</v>
+        <v>44932450</v>
       </c>
       <c r="F94" s="3">
-        <v>497297806</v>
+        <v>189995757</v>
       </c>
       <c r="G94" s="3">
-        <v>365583359</v>
+        <v>114596707</v>
       </c>
       <c r="H94" s="3">
-        <v>39229668</v>
+        <v>1631621</v>
       </c>
       <c r="I94" s="3">
-        <v>404813027</v>
+        <v>116228328</v>
       </c>
       <c r="J94" s="3">
-        <v>92484779</v>
+        <v>73767429</v>
       </c>
       <c r="K94" s="3">
-        <v>497297806</v>
+        <v>189995757</v>
       </c>
       <c r="L94" s="3">
-        <v>29032521</v>
+        <v>23508670</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -8053,31 +8063,31 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>29032521</v>
+        <v>23508670</v>
       </c>
       <c r="Q94" s="3">
-        <v>-1607259</v>
+        <v>-1248722</v>
       </c>
       <c r="R94" s="3">
-        <v>19234277</v>
+        <v>3371594</v>
       </c>
       <c r="S94">
-        <v>14.1</v>
+        <v>-71.930000000000007</v>
       </c>
       <c r="T94">
-        <v>1.71</v>
+        <v>1.23</v>
       </c>
       <c r="U94">
-        <v>2.23</v>
+        <v>1.57</v>
       </c>
       <c r="V94">
-        <v>5.93</v>
+        <v>12.91</v>
       </c>
       <c r="W94">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" hidden="1">
       <c r="A95" s="1" t="s">
         <v>42</v>
       </c>
@@ -8145,7 +8155,7 @@
         <v>17.48</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" hidden="1">
       <c r="A96" s="1" t="s">
         <v>43</v>
       </c>
@@ -8218,40 +8228,40 @@
     </row>
     <row r="97" spans="1:23">
       <c r="A97" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B97" s="2">
-        <v>44560</v>
+        <v>42734</v>
       </c>
       <c r="C97" s="3">
-        <v>15422807</v>
-      </c>
-      <c r="D97">
-        <v>741</v>
+        <v>157924039</v>
+      </c>
+      <c r="D97" s="3">
+        <v>54589</v>
       </c>
       <c r="E97" s="3">
-        <v>471143</v>
+        <v>52932749</v>
       </c>
       <c r="F97" s="3">
-        <v>15893950</v>
+        <v>210856788</v>
       </c>
       <c r="G97" s="3">
-        <v>7013600</v>
+        <v>116321118</v>
       </c>
       <c r="H97" s="3">
-        <v>91506</v>
+        <v>15255234</v>
       </c>
       <c r="I97" s="3">
-        <v>7105106</v>
+        <v>131576352</v>
       </c>
       <c r="J97" s="3">
-        <v>8788844</v>
+        <v>79280436</v>
       </c>
       <c r="K97" s="3">
-        <v>15893950</v>
+        <v>210856788</v>
       </c>
       <c r="L97" s="3">
-        <v>1229254</v>
+        <v>23508670</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -8263,31 +8273,31 @@
         <v>0</v>
       </c>
       <c r="P97" s="3">
-        <v>1229254</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
+        <v>23508670</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>-1248722</v>
       </c>
       <c r="R97" s="3">
-        <v>3059966</v>
+        <v>12643027</v>
       </c>
       <c r="S97">
-        <v>63.06</v>
+        <v>28.17</v>
       </c>
       <c r="T97">
-        <v>12.45</v>
+        <v>4.08</v>
       </c>
       <c r="U97">
-        <v>15.48</v>
+        <v>5.51</v>
       </c>
       <c r="V97">
-        <v>28.15</v>
+        <v>13.62</v>
       </c>
       <c r="W97">
-        <v>15.47</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" hidden="1">
       <c r="A98" s="1" t="s">
         <v>45</v>
       </c>
@@ -8355,7 +8365,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" hidden="1">
       <c r="A99" s="1" t="s">
         <v>46</v>
       </c>
@@ -8428,40 +8438,40 @@
     </row>
     <row r="100" spans="1:23">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B100" s="2">
-        <v>44560</v>
+        <v>42369</v>
       </c>
       <c r="C100" s="3">
-        <v>27591458</v>
+        <v>150313451</v>
       </c>
       <c r="D100" s="3">
-        <v>7126</v>
+        <v>53482</v>
       </c>
       <c r="E100" s="3">
-        <v>48757344</v>
+        <v>59340412</v>
       </c>
       <c r="F100" s="3">
-        <v>76348802</v>
+        <v>209653863</v>
       </c>
       <c r="G100" s="3">
-        <v>15673947</v>
+        <v>109830689</v>
       </c>
       <c r="H100" s="3">
-        <v>8068490</v>
+        <v>20139581</v>
       </c>
       <c r="I100" s="3">
-        <v>23742437</v>
+        <v>129970270</v>
       </c>
       <c r="J100" s="3">
-        <v>52606365</v>
+        <v>79683593</v>
       </c>
       <c r="K100" s="3">
-        <v>76348802</v>
+        <v>209653863</v>
       </c>
       <c r="L100" s="3">
-        <v>12065568</v>
+        <v>23349283</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -8473,31 +8483,31 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>12065568</v>
+        <v>23349283</v>
       </c>
       <c r="Q100" s="3">
-        <v>-239876</v>
+        <v>-1248722</v>
       </c>
       <c r="R100" s="3">
-        <v>18702622</v>
+        <v>10006641</v>
       </c>
       <c r="S100">
-        <v>319.58999999999997</v>
+        <v>28.82</v>
       </c>
       <c r="T100">
-        <v>28.35</v>
+        <v>3.37</v>
       </c>
       <c r="U100">
-        <v>44.33</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="V100">
-        <v>10.34</v>
+        <v>12.97</v>
       </c>
       <c r="W100">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" hidden="1">
       <c r="A101" s="1" t="s">
         <v>48</v>
       </c>
@@ -8568,7 +8578,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" hidden="1">
       <c r="A102" s="1" t="s">
         <v>49</v>
       </c>
@@ -8639,7 +8649,7 @@
         <v>-1.49</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" hidden="1">
       <c r="A103" s="1" t="s">
         <v>50</v>
       </c>
@@ -8710,7 +8720,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" hidden="1">
       <c r="A104" s="1" t="s">
         <v>51</v>
       </c>
@@ -8781,7 +8791,7 @@
         <v>20.62</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" hidden="1">
       <c r="A105" s="1" t="s">
         <v>52</v>
       </c>
@@ -8852,7 +8862,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" hidden="1">
       <c r="A106" s="1" t="s">
         <v>53</v>
       </c>
@@ -8923,7 +8933,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:23" hidden="1">
       <c r="A107" s="1" t="s">
         <v>54</v>
       </c>
@@ -8994,7 +9004,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" hidden="1">
       <c r="A108" s="1" t="s">
         <v>55</v>
       </c>
@@ -9065,7 +9075,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" hidden="1">
       <c r="A109" s="1" t="s">
         <v>56</v>
       </c>
@@ -9133,7 +9143,7 @@
         <v>15.85</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" hidden="1">
       <c r="A110" s="1" t="s">
         <v>57</v>
       </c>
@@ -9204,7 +9214,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" hidden="1">
       <c r="A111" s="1" t="s">
         <v>58</v>
       </c>
@@ -9275,7 +9285,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" hidden="1">
       <c r="A112" s="1" t="s">
         <v>59</v>
       </c>
@@ -9346,7 +9356,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:23" hidden="1">
       <c r="A113" s="1" t="s">
         <v>60</v>
       </c>
@@ -9417,7 +9427,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:23" hidden="1">
       <c r="A114" s="1" t="s">
         <v>61</v>
       </c>
@@ -9488,7 +9498,7 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:23" hidden="1">
       <c r="A115" s="1" t="s">
         <v>62</v>
       </c>
@@ -9559,7 +9569,7 @@
         <v>18.12</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:23" hidden="1">
       <c r="A116" s="1" t="s">
         <v>63</v>
       </c>
@@ -9627,7 +9637,7 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:23" hidden="1">
       <c r="A117" s="1" t="s">
         <v>64</v>
       </c>
@@ -9695,7 +9705,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:23" hidden="1">
       <c r="A118" s="1" t="s">
         <v>65</v>
       </c>
@@ -9766,7 +9776,7 @@
         <v>11.47</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:23" hidden="1">
       <c r="A119" s="1" t="s">
         <v>66</v>
       </c>
@@ -9837,7 +9847,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:23" hidden="1">
       <c r="A120" s="1" t="s">
         <v>67</v>
       </c>
@@ -9908,7 +9918,7 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:23" hidden="1">
       <c r="A121" s="1" t="s">
         <v>68</v>
       </c>
@@ -9984,37 +9994,37 @@
         <v>9</v>
       </c>
       <c r="B122" s="2">
-        <v>44196</v>
+        <v>42004</v>
       </c>
       <c r="C122" s="3">
-        <v>140583805</v>
+        <v>153720896</v>
       </c>
       <c r="D122" s="3">
-        <v>36346</v>
+        <v>58342</v>
       </c>
       <c r="E122" s="3">
-        <v>35483432</v>
+        <v>62812933</v>
       </c>
       <c r="F122" s="3">
-        <v>176067237</v>
+        <v>216533829</v>
       </c>
       <c r="G122" s="3">
-        <v>99599336</v>
+        <v>120288626</v>
       </c>
       <c r="H122" s="3">
-        <v>2326387</v>
+        <v>17072565</v>
       </c>
       <c r="I122" s="3">
-        <v>101925723</v>
+        <v>137361191</v>
       </c>
       <c r="J122" s="3">
-        <v>74141514</v>
+        <v>79172638</v>
       </c>
       <c r="K122" s="3">
-        <v>176067237</v>
+        <v>216533829</v>
       </c>
       <c r="L122" s="3">
-        <v>23508670</v>
+        <v>23416737</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -10026,31 +10036,31 @@
         <v>0</v>
       </c>
       <c r="P122" s="3">
-        <v>23508670</v>
+        <v>23416737</v>
       </c>
       <c r="Q122" s="3">
-        <v>-1271314</v>
+        <v>-1248722</v>
       </c>
       <c r="R122" s="3">
-        <v>12601921</v>
+        <v>7747872</v>
       </c>
       <c r="S122">
-        <v>4.5</v>
+        <v>-36.15</v>
       </c>
       <c r="T122">
-        <v>6.26</v>
+        <v>2.46</v>
       </c>
       <c r="U122">
-        <v>8.02</v>
+        <v>3.36</v>
       </c>
       <c r="V122">
-        <v>17.43</v>
+        <v>12.25</v>
       </c>
       <c r="W122">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" hidden="1">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
@@ -10121,7 +10131,7 @@
         <v>-11.67</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:23" hidden="1">
       <c r="A124" s="1" t="s">
         <v>11</v>
       </c>
@@ -10192,7 +10202,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:23" hidden="1">
       <c r="A125" s="1" t="s">
         <v>12</v>
       </c>
@@ -10263,7 +10273,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:23" hidden="1">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
@@ -10334,7 +10344,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:23" hidden="1">
       <c r="A127" s="1" t="s">
         <v>14</v>
       </c>
@@ -10405,7 +10415,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:23" hidden="1">
       <c r="A128" s="1" t="s">
         <v>15</v>
       </c>
@@ -10476,7 +10486,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" hidden="1">
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
@@ -10544,7 +10554,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" hidden="1">
       <c r="A130" s="1" t="s">
         <v>17</v>
       </c>
@@ -10615,7 +10625,7 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" hidden="1">
       <c r="A131" s="1" t="s">
         <v>18</v>
       </c>
@@ -10686,7 +10696,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" hidden="1">
       <c r="A132" s="1" t="s">
         <v>19</v>
       </c>
@@ -10757,7 +10767,7 @@
         <v>9.7899999999999991</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" hidden="1">
       <c r="A133" s="1" t="s">
         <v>20</v>
       </c>
@@ -10825,7 +10835,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" hidden="1">
       <c r="A134" s="1" t="s">
         <v>21</v>
       </c>
@@ -10893,7 +10903,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" hidden="1">
       <c r="A135" s="1" t="s">
         <v>22</v>
       </c>
@@ -10964,7 +10974,7 @@
         <v>-19.79</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" hidden="1">
       <c r="A136" s="1" t="s">
         <v>23</v>
       </c>
@@ -11035,7 +11045,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" hidden="1">
       <c r="A137" s="1" t="s">
         <v>24</v>
       </c>
@@ -11103,7 +11113,7 @@
         <v>9.48</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" hidden="1">
       <c r="A138" s="1" t="s">
         <v>25</v>
       </c>
@@ -11174,7 +11184,7 @@
         <v>17.68</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" hidden="1">
       <c r="A139" s="1" t="s">
         <v>26</v>
       </c>
@@ -11245,7 +11255,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" hidden="1">
       <c r="A140" s="1" t="s">
         <v>27</v>
       </c>
@@ -11313,7 +11323,7 @@
         <v>-1.28</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" hidden="1">
       <c r="A141" s="1" t="s">
         <v>28</v>
       </c>
@@ -11381,7 +11391,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" hidden="1">
       <c r="A142" s="1" t="s">
         <v>29</v>
       </c>
@@ -11452,7 +11462,7 @@
         <v>26.24</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" hidden="1">
       <c r="A143" s="1" t="s">
         <v>30</v>
       </c>
@@ -11523,7 +11533,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" hidden="1">
       <c r="A144" s="1" t="s">
         <v>31</v>
       </c>
@@ -11591,7 +11601,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:23" hidden="1">
       <c r="A145" s="1" t="s">
         <v>32</v>
       </c>
@@ -11662,7 +11672,7 @@
         <v>-2.67</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:23" hidden="1">
       <c r="A146" s="1" t="s">
         <v>33</v>
       </c>
@@ -11730,7 +11740,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:23" hidden="1">
       <c r="A147" s="1" t="s">
         <v>34</v>
       </c>
@@ -11801,7 +11811,7 @@
         <v>11.19</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:23" hidden="1">
       <c r="A148" s="1" t="s">
         <v>35</v>
       </c>
@@ -11872,7 +11882,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:23" hidden="1">
       <c r="A149" s="1" t="s">
         <v>36</v>
       </c>
@@ -11943,7 +11953,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:23" hidden="1">
       <c r="A150" s="1" t="s">
         <v>37</v>
       </c>
@@ -12014,7 +12024,7 @@
         <v>15.02</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:23" hidden="1">
       <c r="A151" s="1" t="s">
         <v>38</v>
       </c>
@@ -12085,7 +12095,7 @@
         <v>-3.7</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:23" hidden="1">
       <c r="A152" s="1" t="s">
         <v>39</v>
       </c>
@@ -12153,7 +12163,7 @@
         <v>-16.059999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:23" hidden="1">
       <c r="A153" s="1" t="s">
         <v>40</v>
       </c>
@@ -12226,76 +12236,76 @@
     </row>
     <row r="154" spans="1:23">
       <c r="A154" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B154" s="2">
-        <v>44196</v>
+        <v>41639</v>
       </c>
       <c r="C154" s="3">
-        <v>361960347</v>
+        <v>150430691</v>
       </c>
       <c r="D154" s="3">
-        <v>82955</v>
+        <v>28051</v>
       </c>
       <c r="E154" s="3">
-        <v>66862098</v>
+        <v>61930795</v>
       </c>
       <c r="F154" s="3">
-        <v>428822445</v>
+        <v>212361486</v>
       </c>
       <c r="G154" s="3">
-        <v>313699489</v>
+        <v>111356983</v>
       </c>
       <c r="H154" s="3">
-        <v>31196877</v>
+        <v>21767348</v>
       </c>
       <c r="I154" s="3">
-        <v>344896366</v>
+        <v>133124331</v>
       </c>
       <c r="J154" s="3">
-        <v>83926079</v>
+        <v>79237155</v>
       </c>
       <c r="K154" s="3">
-        <v>428822445</v>
+        <v>212361486</v>
       </c>
       <c r="L154" s="3">
-        <v>28406121</v>
+        <v>23246552</v>
       </c>
       <c r="M154">
         <v>0</v>
       </c>
-      <c r="N154">
-        <v>0</v>
+      <c r="N154" s="3">
+        <v>29705</v>
       </c>
       <c r="O154">
         <v>0</v>
       </c>
       <c r="P154" s="3">
-        <v>28406121</v>
+        <v>23276257</v>
       </c>
       <c r="Q154" s="3">
-        <v>-1607259</v>
+        <v>-1334660</v>
       </c>
       <c r="R154" s="3">
-        <v>16845375</v>
+        <v>11519779</v>
       </c>
       <c r="S154">
-        <v>32.71</v>
+        <v>-5.18</v>
       </c>
       <c r="T154">
-        <v>1.53</v>
+        <v>4.17</v>
       </c>
       <c r="U154">
-        <v>1.99</v>
+        <v>5.4</v>
       </c>
       <c r="V154">
-        <v>5.45</v>
+        <v>14.31</v>
       </c>
       <c r="W154">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" hidden="1">
       <c r="A155" s="1" t="s">
         <v>42</v>
       </c>
@@ -12363,7 +12373,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:23" hidden="1">
       <c r="A156" s="1" t="s">
         <v>43</v>
       </c>
@@ -12436,40 +12446,40 @@
     </row>
     <row r="157" spans="1:23">
       <c r="A157" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B157" s="2">
-        <v>44196</v>
+        <v>44925</v>
       </c>
       <c r="C157" s="3">
-        <v>11226039</v>
-      </c>
-      <c r="D157">
-        <v>698</v>
+        <v>342985667</v>
+      </c>
+      <c r="D157" s="3">
+        <v>82955</v>
       </c>
       <c r="E157" s="3">
-        <v>489772</v>
+        <v>89922107</v>
       </c>
       <c r="F157" s="3">
-        <v>11715811</v>
+        <v>432907774</v>
       </c>
       <c r="G157" s="3">
-        <v>4325667</v>
+        <v>286725416</v>
       </c>
       <c r="H157" s="3">
-        <v>81708</v>
+        <v>27529802</v>
       </c>
       <c r="I157" s="3">
-        <v>4407375</v>
+        <v>314255218</v>
       </c>
       <c r="J157" s="3">
-        <v>7308436</v>
+        <v>118652556</v>
       </c>
       <c r="K157" s="3">
-        <v>11715811</v>
+        <v>432907774</v>
       </c>
       <c r="L157" s="3">
-        <v>1206424</v>
+        <v>29016021</v>
       </c>
       <c r="M157">
         <v>0</v>
@@ -12481,31 +12491,31 @@
         <v>0</v>
       </c>
       <c r="P157" s="3">
-        <v>1206424</v>
-      </c>
-      <c r="Q157">
-        <v>0</v>
+        <v>29016021</v>
+      </c>
+      <c r="Q157" s="3">
+        <v>-1491116</v>
       </c>
       <c r="R157" s="3">
-        <v>1855783</v>
+        <v>24710914</v>
       </c>
       <c r="S157">
-        <v>132.07</v>
+        <v>29.13</v>
       </c>
       <c r="T157">
-        <v>8.42</v>
+        <v>1.93</v>
       </c>
       <c r="U157">
-        <v>10.36</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="V157">
-        <v>21.51</v>
+        <v>7.08</v>
       </c>
       <c r="W157">
-        <v>10.37</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" hidden="1">
       <c r="A158" s="1" t="s">
         <v>45</v>
       </c>
@@ -12573,7 +12583,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:23" hidden="1">
       <c r="A159" s="1" t="s">
         <v>46</v>
       </c>
@@ -12646,40 +12656,40 @@
     </row>
     <row r="160" spans="1:23">
       <c r="A160" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B160" s="2">
-        <v>44196</v>
+        <v>44560</v>
       </c>
       <c r="C160" s="3">
-        <v>21981509</v>
+        <v>421786551</v>
       </c>
       <c r="D160" s="3">
-        <v>7245</v>
+        <v>82955</v>
       </c>
       <c r="E160" s="3">
-        <v>35190226</v>
+        <v>75511255</v>
       </c>
       <c r="F160" s="3">
-        <v>57171735</v>
+        <v>497297806</v>
       </c>
       <c r="G160" s="3">
-        <v>12521697</v>
+        <v>365583359</v>
       </c>
       <c r="H160" s="3">
-        <v>1888543</v>
+        <v>39229668</v>
       </c>
       <c r="I160" s="3">
-        <v>14410240</v>
+        <v>404813027</v>
       </c>
       <c r="J160" s="3">
-        <v>42761495</v>
+        <v>92484779</v>
       </c>
       <c r="K160" s="3">
-        <v>57171735</v>
+        <v>497297806</v>
       </c>
       <c r="L160" s="3">
-        <v>12065568</v>
+        <v>29032521</v>
       </c>
       <c r="M160">
         <v>0</v>
@@ -12691,31 +12701,31 @@
         <v>0</v>
       </c>
       <c r="P160" s="3">
-        <v>12065568</v>
+        <v>29032521</v>
       </c>
       <c r="Q160" s="3">
-        <v>-239876</v>
+        <v>-1607259</v>
       </c>
       <c r="R160" s="3">
-        <v>2980076</v>
+        <v>19234277</v>
       </c>
       <c r="S160">
-        <v>2.78</v>
+        <v>14.1</v>
       </c>
       <c r="T160">
-        <v>6.93</v>
+        <v>1.71</v>
       </c>
       <c r="U160">
-        <v>7.24</v>
+        <v>2.23</v>
       </c>
       <c r="V160">
-        <v>11.24</v>
+        <v>5.93</v>
       </c>
       <c r="W160">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" hidden="1">
       <c r="A161" s="1" t="s">
         <v>48</v>
       </c>
@@ -12786,7 +12796,7 @@
         <v>-3.13</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:23" hidden="1">
       <c r="A162" s="1" t="s">
         <v>49</v>
       </c>
@@ -12857,7 +12867,7 @@
         <v>-3.3</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:23" hidden="1">
       <c r="A163" s="1" t="s">
         <v>50</v>
       </c>
@@ -12928,7 +12938,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:23" hidden="1">
       <c r="A164" s="1" t="s">
         <v>51</v>
       </c>
@@ -12999,7 +13009,7 @@
         <v>28.79</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:23" hidden="1">
       <c r="A165" s="1" t="s">
         <v>52</v>
       </c>
@@ -13070,7 +13080,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:23" hidden="1">
       <c r="A166" s="1" t="s">
         <v>53</v>
       </c>
@@ -13141,7 +13151,7 @@
         <v>-3.18</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:23" hidden="1">
       <c r="A167" s="1" t="s">
         <v>54</v>
       </c>
@@ -13212,7 +13222,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:23" hidden="1">
       <c r="A168" s="1" t="s">
         <v>55</v>
       </c>
@@ -13283,7 +13293,7 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:23" hidden="1">
       <c r="A169" s="1" t="s">
         <v>56</v>
       </c>
@@ -13351,7 +13361,7 @@
         <v>15.82</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:23" hidden="1">
       <c r="A170" s="1" t="s">
         <v>57</v>
       </c>
@@ -13422,7 +13432,7 @@
         <v>11.87</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:23" hidden="1">
       <c r="A171" s="1" t="s">
         <v>58</v>
       </c>
@@ -13493,7 +13503,7 @@
         <v>-1.46</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:23" hidden="1">
       <c r="A172" s="1" t="s">
         <v>59</v>
       </c>
@@ -13564,7 +13574,7 @@
         <v>12.61</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:23" hidden="1">
       <c r="A173" s="1" t="s">
         <v>60</v>
       </c>
@@ -13635,7 +13645,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:23" hidden="1">
       <c r="A174" s="1" t="s">
         <v>61</v>
       </c>
@@ -13706,7 +13716,7 @@
         <v>10.52</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:23" hidden="1">
       <c r="A175" s="1" t="s">
         <v>62</v>
       </c>
@@ -13777,7 +13787,7 @@
         <v>18.95</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:23" hidden="1">
       <c r="A176" s="1" t="s">
         <v>63</v>
       </c>
@@ -13845,7 +13855,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:23" hidden="1">
       <c r="A177" s="1" t="s">
         <v>64</v>
       </c>
@@ -13910,7 +13920,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:23" hidden="1">
       <c r="A178" s="1" t="s">
         <v>65</v>
       </c>
@@ -13981,7 +13991,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:23" hidden="1">
       <c r="A179" s="1" t="s">
         <v>66</v>
       </c>
@@ -14052,7 +14062,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:23" hidden="1">
       <c r="A180" s="1" t="s">
         <v>67</v>
       </c>
@@ -14123,7 +14133,7 @@
         <v>12.77</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:23" hidden="1">
       <c r="A181" s="1" t="s">
         <v>68</v>
       </c>
@@ -14196,40 +14206,40 @@
     </row>
     <row r="182" spans="1:23">
       <c r="A182" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B182" s="2">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="C182" s="3">
-        <v>146852680</v>
+        <v>361960347</v>
       </c>
       <c r="D182" s="3">
-        <v>38676</v>
+        <v>82955</v>
       </c>
       <c r="E182" s="3">
-        <v>39779823</v>
+        <v>66862098</v>
       </c>
       <c r="F182" s="3">
-        <v>186632503</v>
+        <v>428822445</v>
       </c>
       <c r="G182" s="3">
-        <v>109397843</v>
+        <v>313699489</v>
       </c>
       <c r="H182" s="3">
-        <v>2593270</v>
+        <v>31196877</v>
       </c>
       <c r="I182" s="3">
-        <v>111991113</v>
+        <v>344896366</v>
       </c>
       <c r="J182" s="3">
-        <v>74641390</v>
+        <v>83926079</v>
       </c>
       <c r="K182" s="3">
-        <v>186632503</v>
+        <v>428822445</v>
       </c>
       <c r="L182" s="3">
-        <v>23508670</v>
+        <v>28406121</v>
       </c>
       <c r="M182">
         <v>0</v>
@@ -14241,31 +14251,31 @@
         <v>0</v>
       </c>
       <c r="P182" s="3">
-        <v>23508670</v>
+        <v>28406121</v>
       </c>
       <c r="Q182" s="3">
-        <v>-1271314</v>
+        <v>-1607259</v>
       </c>
       <c r="R182" s="3">
-        <v>12363838</v>
+        <v>16845375</v>
       </c>
       <c r="S182">
-        <v>18.05</v>
+        <v>32.71</v>
       </c>
       <c r="T182">
-        <v>5.29</v>
+        <v>1.53</v>
       </c>
       <c r="U182">
-        <v>6.95</v>
+        <v>1.99</v>
       </c>
       <c r="V182">
-        <v>15.36</v>
+        <v>5.45</v>
       </c>
       <c r="W182">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="183" spans="1:23">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" hidden="1">
       <c r="A183" s="1" t="s">
         <v>10</v>
       </c>
@@ -14336,7 +14346,7 @@
         <v>-27.16</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:23" hidden="1">
       <c r="A184" s="1" t="s">
         <v>11</v>
       </c>
@@ -14407,7 +14417,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:23" hidden="1">
       <c r="A185" s="1" t="s">
         <v>12</v>
       </c>
@@ -14478,7 +14488,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:23" hidden="1">
       <c r="A186" s="1" t="s">
         <v>13</v>
       </c>
@@ -14549,7 +14559,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:23" hidden="1">
       <c r="A187" s="1" t="s">
         <v>14</v>
       </c>
@@ -14620,7 +14630,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:23" hidden="1">
       <c r="A188" s="1" t="s">
         <v>15</v>
       </c>
@@ -14691,7 +14701,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:23" hidden="1">
       <c r="A189" s="1" t="s">
         <v>16</v>
       </c>
@@ -14762,7 +14772,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:23" hidden="1">
       <c r="A190" s="1" t="s">
         <v>17</v>
       </c>
@@ -14833,7 +14843,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:23" hidden="1">
       <c r="A191" s="1" t="s">
         <v>18</v>
       </c>
@@ -14904,7 +14914,7 @@
         <v>-9.76</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:23" hidden="1">
       <c r="A192" s="1" t="s">
         <v>19</v>
       </c>
@@ -14975,7 +14985,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:23" hidden="1">
       <c r="A193" s="1" t="s">
         <v>20</v>
       </c>
@@ -15043,7 +15053,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:23" hidden="1">
       <c r="A194" s="1" t="s">
         <v>21</v>
       </c>
@@ -15111,7 +15121,7 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:23" hidden="1">
       <c r="A195" s="1" t="s">
         <v>22</v>
       </c>
@@ -15182,7 +15192,7 @@
         <v>-27.02</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:23" hidden="1">
       <c r="A196" s="1" t="s">
         <v>23</v>
       </c>
@@ -15253,7 +15263,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:23" hidden="1">
       <c r="A197" s="1" t="s">
         <v>24</v>
       </c>
@@ -15324,7 +15334,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:23" hidden="1">
       <c r="A198" s="1" t="s">
         <v>25</v>
       </c>
@@ -15395,7 +15405,7 @@
         <v>17.05</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:23" hidden="1">
       <c r="A199" s="1" t="s">
         <v>26</v>
       </c>
@@ -15466,7 +15476,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:23" hidden="1">
       <c r="A200" s="1" t="s">
         <v>27</v>
       </c>
@@ -15534,7 +15544,7 @@
         <v>-3.45</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:23" hidden="1">
       <c r="A201" s="1" t="s">
         <v>28</v>
       </c>
@@ -15605,7 +15615,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:23" hidden="1">
       <c r="A202" s="1" t="s">
         <v>29</v>
       </c>
@@ -15676,7 +15686,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:23" hidden="1">
       <c r="A203" s="1" t="s">
         <v>30</v>
       </c>
@@ -15747,7 +15757,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:23" hidden="1">
       <c r="A204" s="1" t="s">
         <v>31</v>
       </c>
@@ -15815,7 +15825,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:23" hidden="1">
       <c r="A205" s="1" t="s">
         <v>32</v>
       </c>
@@ -15886,7 +15896,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:23" hidden="1">
       <c r="A206" s="1" t="s">
         <v>33</v>
       </c>
@@ -15954,7 +15964,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:23" hidden="1">
       <c r="A207" s="1" t="s">
         <v>34</v>
       </c>
@@ -16025,7 +16035,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:23" hidden="1">
       <c r="A208" s="1" t="s">
         <v>35</v>
       </c>
@@ -16096,7 +16106,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:23" hidden="1">
       <c r="A209" s="1" t="s">
         <v>36</v>
       </c>
@@ -16167,7 +16177,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:23" hidden="1">
       <c r="A210" s="1" t="s">
         <v>37</v>
       </c>
@@ -16238,7 +16248,7 @@
         <v>11.68</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:23" hidden="1">
       <c r="A211" s="1" t="s">
         <v>38</v>
       </c>
@@ -16309,7 +16319,7 @@
         <v>-6.25</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:23" hidden="1">
       <c r="A212" s="1" t="s">
         <v>39</v>
       </c>
@@ -16377,7 +16387,7 @@
         <v>-22.63</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:23" hidden="1">
       <c r="A213" s="1" t="s">
         <v>40</v>
       </c>
@@ -16519,7 +16529,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:23" hidden="1">
       <c r="A215" s="1" t="s">
         <v>42</v>
       </c>
@@ -16587,7 +16597,7 @@
         <v>16.329999999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:23" hidden="1">
       <c r="A216" s="1" t="s">
         <v>43</v>
       </c>
@@ -16660,40 +16670,40 @@
     </row>
     <row r="217" spans="1:23">
       <c r="A217" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B217" s="2">
-        <v>43830</v>
+        <v>43462</v>
       </c>
       <c r="C217" s="3">
-        <v>9706137</v>
-      </c>
-      <c r="D217">
-        <v>629</v>
+        <v>275427144</v>
+      </c>
+      <c r="D217" s="3">
+        <v>82955</v>
       </c>
       <c r="E217" s="3">
-        <v>560035</v>
+        <v>63675431</v>
       </c>
       <c r="F217" s="3">
-        <v>10266172</v>
+        <v>339102575</v>
       </c>
       <c r="G217" s="3">
-        <v>3747151</v>
+        <v>239878889</v>
       </c>
       <c r="H217" s="3">
-        <v>64554</v>
+        <v>25692104</v>
       </c>
       <c r="I217" s="3">
-        <v>3811705</v>
+        <v>265570993</v>
       </c>
       <c r="J217" s="3">
-        <v>6454467</v>
+        <v>73531582</v>
       </c>
       <c r="K217" s="3">
-        <v>10266172</v>
+        <v>339102575</v>
       </c>
       <c r="L217" s="3">
-        <v>1206472</v>
+        <v>28421220</v>
       </c>
       <c r="M217">
         <v>0</v>
@@ -16705,31 +16715,31 @@
         <v>0</v>
       </c>
       <c r="P217" s="3">
-        <v>1206472</v>
-      </c>
-      <c r="Q217">
-        <v>0</v>
+        <v>28421220</v>
+      </c>
+      <c r="Q217" s="3">
+        <v>-533236</v>
       </c>
       <c r="R217" s="3">
-        <v>784917</v>
+        <v>9658838</v>
       </c>
       <c r="S217">
-        <v>9.66</v>
+        <v>67.03</v>
       </c>
       <c r="T217">
-        <v>4.8499999999999996</v>
+        <v>0.82</v>
       </c>
       <c r="U217">
-        <v>5.85</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="V217">
-        <v>18.18</v>
+        <v>4.22</v>
       </c>
       <c r="W217">
-        <v>5.72</v>
-      </c>
-    </row>
-    <row r="218" spans="1:23">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" hidden="1">
       <c r="A218" s="1" t="s">
         <v>45</v>
       </c>
@@ -16797,7 +16807,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:23" hidden="1">
       <c r="A219" s="1" t="s">
         <v>46</v>
       </c>
@@ -16870,40 +16880,40 @@
     </row>
     <row r="220" spans="1:23">
       <c r="A220" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B220" s="2">
-        <v>43830</v>
+        <v>43098</v>
       </c>
       <c r="C220" s="3">
-        <v>23189327</v>
+        <v>270205662</v>
       </c>
       <c r="D220" s="3">
-        <v>7633</v>
+        <v>82955</v>
       </c>
       <c r="E220" s="3">
-        <v>32221055</v>
+        <v>56447720</v>
       </c>
       <c r="F220" s="3">
-        <v>55410382</v>
+        <v>326653382</v>
       </c>
       <c r="G220" s="3">
-        <v>14102831</v>
+        <v>254191674</v>
       </c>
       <c r="H220" s="3">
-        <v>1752805</v>
+        <v>6040646</v>
       </c>
       <c r="I220" s="3">
-        <v>15855636</v>
+        <v>260232320</v>
       </c>
       <c r="J220" s="3">
-        <v>39554746</v>
+        <v>66421062</v>
       </c>
       <c r="K220" s="3">
-        <v>55410382</v>
+        <v>326653382</v>
       </c>
       <c r="L220" s="3">
-        <v>10772829</v>
+        <v>27486880</v>
       </c>
       <c r="M220">
         <v>0</v>
@@ -16915,31 +16925,31 @@
         <v>0</v>
       </c>
       <c r="P220" s="3">
-        <v>10772829</v>
+        <v>27486880</v>
       </c>
       <c r="Q220" s="3">
-        <v>-353087</v>
+        <v>-1753005</v>
       </c>
       <c r="R220" s="3">
-        <v>3082908</v>
+        <v>6158411</v>
       </c>
       <c r="S220">
-        <v>-15.85</v>
+        <v>45.72</v>
       </c>
       <c r="T220">
-        <v>7.74</v>
+        <v>0.52</v>
       </c>
       <c r="U220">
-        <v>8.6</v>
+        <v>0.74</v>
       </c>
       <c r="V220">
-        <v>14.48</v>
+        <v>3.78</v>
       </c>
       <c r="W220">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:23">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" hidden="1">
       <c r="A221" s="1" t="s">
         <v>48</v>
       </c>
@@ -17010,7 +17020,7 @@
         <v>-6.03</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:23" hidden="1">
       <c r="A222" s="1" t="s">
         <v>49</v>
       </c>
@@ -17081,7 +17091,7 @@
         <v>-0.42</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:23" hidden="1">
       <c r="A223" s="1" t="s">
         <v>50</v>
       </c>
@@ -17152,7 +17162,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:23" hidden="1">
       <c r="A224" s="1" t="s">
         <v>51</v>
       </c>
@@ -17223,7 +17233,7 @@
         <v>16.37</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:23" hidden="1">
       <c r="A225" s="1" t="s">
         <v>52</v>
       </c>
@@ -17294,7 +17304,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:23" hidden="1">
       <c r="A226" s="1" t="s">
         <v>53</v>
       </c>
@@ -17365,7 +17375,7 @@
         <v>-6.77</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:23" hidden="1">
       <c r="A227" s="1" t="s">
         <v>54</v>
       </c>
@@ -17436,7 +17446,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:23" hidden="1">
       <c r="A228" s="1" t="s">
         <v>55</v>
       </c>
@@ -17507,7 +17517,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:23" hidden="1">
       <c r="A229" s="1" t="s">
         <v>56</v>
       </c>
@@ -17575,7 +17585,7 @@
         <v>17.07</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:23" hidden="1">
       <c r="A230" s="1" t="s">
         <v>57</v>
       </c>
@@ -17646,7 +17656,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:23" hidden="1">
       <c r="A231" s="1" t="s">
         <v>58</v>
       </c>
@@ -17717,7 +17727,7 @@
         <v>-20.05</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:23" hidden="1">
       <c r="A232" s="1" t="s">
         <v>59</v>
       </c>
@@ -17788,7 +17798,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:23" hidden="1">
       <c r="A233" s="1" t="s">
         <v>60</v>
       </c>
@@ -17859,7 +17869,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:23" hidden="1">
       <c r="A234" s="1" t="s">
         <v>61</v>
       </c>
@@ -17930,7 +17940,7 @@
         <v>11.71</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:23" hidden="1">
       <c r="A235" s="1" t="s">
         <v>62</v>
       </c>
@@ -18001,7 +18011,7 @@
         <v>11.59</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:23" hidden="1">
       <c r="A236" s="1" t="s">
         <v>63</v>
       </c>
@@ -18069,7 +18079,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:23" hidden="1">
       <c r="A237" s="1" t="s">
         <v>65</v>
       </c>
@@ -18140,7 +18150,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:23" hidden="1">
       <c r="A238" s="1" t="s">
         <v>66</v>
       </c>
@@ -18211,7 +18221,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:23" hidden="1">
       <c r="A239" s="1" t="s">
         <v>67</v>
       </c>
@@ -18282,7 +18292,7 @@
         <v>16.52</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:23" hidden="1">
       <c r="A240" s="1" t="s">
         <v>68</v>
       </c>
@@ -18355,40 +18365,40 @@
     </row>
     <row r="241" spans="1:23">
       <c r="A241" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B241" s="2">
-        <v>43462</v>
+        <v>42734</v>
       </c>
       <c r="C241" s="3">
-        <v>157984918</v>
+        <v>225656731</v>
       </c>
       <c r="D241" s="3">
-        <v>41801</v>
+        <v>83278</v>
       </c>
       <c r="E241" s="3">
-        <v>39151151</v>
+        <v>57098827</v>
       </c>
       <c r="F241" s="3">
-        <v>197136069</v>
+        <v>282755558</v>
       </c>
       <c r="G241" s="3">
-        <v>120612081</v>
+        <v>197453207</v>
       </c>
       <c r="H241" s="3">
-        <v>1845587</v>
+        <v>17333902</v>
       </c>
       <c r="I241" s="3">
-        <v>122457668</v>
+        <v>214787109</v>
       </c>
       <c r="J241" s="3">
-        <v>74678401</v>
+        <v>67968449</v>
       </c>
       <c r="K241" s="3">
-        <v>197136069</v>
+        <v>282755558</v>
       </c>
       <c r="L241" s="3">
-        <v>23508670</v>
+        <v>26503165</v>
       </c>
       <c r="M241">
         <v>0</v>
@@ -18400,31 +18410,31 @@
         <v>0</v>
       </c>
       <c r="P241" s="3">
-        <v>23508670</v>
+        <v>26503165</v>
       </c>
       <c r="Q241" s="3">
-        <v>-1248722</v>
+        <v>-2592278</v>
       </c>
       <c r="R241" s="3">
-        <v>10784121</v>
+        <v>4757100</v>
       </c>
       <c r="S241">
-        <v>202.8</v>
+        <v>135.5</v>
       </c>
       <c r="T241">
-        <v>3.85</v>
+        <v>0.45</v>
       </c>
       <c r="U241">
-        <v>5.21</v>
+        <v>0.72</v>
       </c>
       <c r="V241">
-        <v>13.09</v>
+        <v>4.8</v>
       </c>
       <c r="W241">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="242" spans="1:23">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" hidden="1">
       <c r="A242" s="1" t="s">
         <v>10</v>
       </c>
@@ -18495,7 +18505,7 @@
         <v>-21.99</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:23" hidden="1">
       <c r="A243" s="1" t="s">
         <v>11</v>
       </c>
@@ -18566,7 +18576,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:23" hidden="1">
       <c r="A244" s="1" t="s">
         <v>12</v>
       </c>
@@ -18637,7 +18647,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="245" spans="1:23">
+    <row r="245" spans="1:23" hidden="1">
       <c r="A245" s="1" t="s">
         <v>13</v>
       </c>
@@ -18708,7 +18718,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="246" spans="1:23">
+    <row r="246" spans="1:23" hidden="1">
       <c r="A246" s="1" t="s">
         <v>14</v>
       </c>
@@ -18779,7 +18789,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:23" hidden="1">
       <c r="A247" s="1" t="s">
         <v>15</v>
       </c>
@@ -18850,7 +18860,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="248" spans="1:23">
+    <row r="248" spans="1:23" hidden="1">
       <c r="A248" s="1" t="s">
         <v>16</v>
       </c>
@@ -18921,7 +18931,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:23" hidden="1">
       <c r="A249" s="1" t="s">
         <v>17</v>
       </c>
@@ -18992,7 +19002,7 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:23" hidden="1">
       <c r="A250" s="1" t="s">
         <v>18</v>
       </c>
@@ -19063,7 +19073,7 @@
         <v>-4.9400000000000004</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:23" hidden="1">
       <c r="A251" s="1" t="s">
         <v>19</v>
       </c>
@@ -19134,7 +19144,7 @@
         <v>-2.0499999999999998</v>
       </c>
     </row>
-    <row r="252" spans="1:23">
+    <row r="252" spans="1:23" hidden="1">
       <c r="A252" s="1" t="s">
         <v>20</v>
       </c>
@@ -19202,7 +19212,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:23" hidden="1">
       <c r="A253" s="1" t="s">
         <v>21</v>
       </c>
@@ -19270,7 +19280,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:23" hidden="1">
       <c r="A254" s="1" t="s">
         <v>22</v>
       </c>
@@ -19341,7 +19351,7 @@
         <v>-20.52</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:23" hidden="1">
       <c r="A255" s="1" t="s">
         <v>23</v>
       </c>
@@ -19412,7 +19422,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:23" hidden="1">
       <c r="A256" s="1" t="s">
         <v>24</v>
       </c>
@@ -19483,7 +19493,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="257" spans="1:23">
+    <row r="257" spans="1:23" hidden="1">
       <c r="A257" s="1" t="s">
         <v>25</v>
       </c>
@@ -19554,7 +19564,7 @@
         <v>15.31</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:23" hidden="1">
       <c r="A258" s="1" t="s">
         <v>26</v>
       </c>
@@ -19625,7 +19635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="1:23">
+    <row r="259" spans="1:23" hidden="1">
       <c r="A259" s="1" t="s">
         <v>27</v>
       </c>
@@ -19693,7 +19703,7 @@
         <v>-2.12</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:23" hidden="1">
       <c r="A260" s="1" t="s">
         <v>28</v>
       </c>
@@ -19764,7 +19774,7 @@
         <v>-4.1100000000000003</v>
       </c>
     </row>
-    <row r="261" spans="1:23">
+    <row r="261" spans="1:23" hidden="1">
       <c r="A261" s="1" t="s">
         <v>29</v>
       </c>
@@ -19835,7 +19845,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="262" spans="1:23">
+    <row r="262" spans="1:23" hidden="1">
       <c r="A262" s="1" t="s">
         <v>30</v>
       </c>
@@ -19906,7 +19916,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="263" spans="1:23">
+    <row r="263" spans="1:23" hidden="1">
       <c r="A263" s="1" t="s">
         <v>31</v>
       </c>
@@ -19974,7 +19984,7 @@
         <v>-0.41</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:23" hidden="1">
       <c r="A264" s="1" t="s">
         <v>32</v>
       </c>
@@ -20045,7 +20055,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:23" hidden="1">
       <c r="A265" s="1" t="s">
         <v>33</v>
       </c>
@@ -20113,7 +20123,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:23" hidden="1">
       <c r="A266" s="1" t="s">
         <v>34</v>
       </c>
@@ -20184,7 +20194,7 @@
         <v>10.74</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:23" hidden="1">
       <c r="A267" s="1" t="s">
         <v>35</v>
       </c>
@@ -20255,7 +20265,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:23" hidden="1">
       <c r="A268" s="1" t="s">
         <v>36</v>
       </c>
@@ -20326,7 +20336,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:23" hidden="1">
       <c r="A269" s="1" t="s">
         <v>37</v>
       </c>
@@ -20397,7 +20407,7 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="270" spans="1:23">
+    <row r="270" spans="1:23" hidden="1">
       <c r="A270" s="1" t="s">
         <v>38</v>
       </c>
@@ -20468,7 +20478,7 @@
         <v>-0.66</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:23" hidden="1">
       <c r="A271" s="1" t="s">
         <v>39</v>
       </c>
@@ -20536,7 +20546,7 @@
         <v>-1.36</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:23" hidden="1">
       <c r="A272" s="1" t="s">
         <v>40</v>
       </c>
@@ -20612,37 +20622,37 @@
         <v>41</v>
       </c>
       <c r="B273" s="2">
-        <v>43462</v>
+        <v>42369</v>
       </c>
       <c r="C273" s="3">
-        <v>275427144</v>
+        <v>232090337</v>
       </c>
       <c r="D273" s="3">
-        <v>82955</v>
+        <v>60681</v>
       </c>
       <c r="E273" s="3">
-        <v>63675431</v>
+        <v>58294707</v>
       </c>
       <c r="F273" s="3">
-        <v>339102575</v>
+        <v>290385044</v>
       </c>
       <c r="G273" s="3">
-        <v>239878889</v>
+        <v>199844353</v>
       </c>
       <c r="H273" s="3">
-        <v>25692104</v>
+        <v>21323478</v>
       </c>
       <c r="I273" s="3">
-        <v>265570993</v>
+        <v>221167831</v>
       </c>
       <c r="J273" s="3">
-        <v>73531582</v>
+        <v>69217213</v>
       </c>
       <c r="K273" s="3">
-        <v>339102575</v>
+        <v>290385044</v>
       </c>
       <c r="L273" s="3">
-        <v>28421220</v>
+        <v>25554824</v>
       </c>
       <c r="M273">
         <v>0</v>
@@ -20654,31 +20664,31 @@
         <v>0</v>
       </c>
       <c r="P273" s="3">
-        <v>28421220</v>
+        <v>25554824</v>
       </c>
       <c r="Q273" s="3">
-        <v>-533236</v>
+        <v>-2721183</v>
       </c>
       <c r="R273" s="3">
-        <v>9658838</v>
+        <v>2370365</v>
       </c>
       <c r="S273">
-        <v>67.03</v>
+        <v>-64.61</v>
       </c>
       <c r="T273">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="U273">
-        <v>1.0900000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="V273">
-        <v>4.22</v>
+        <v>4.72</v>
       </c>
       <c r="W273">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="274" spans="1:23">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" hidden="1">
       <c r="A274" s="1" t="s">
         <v>42</v>
       </c>
@@ -20746,7 +20756,7 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:23" hidden="1">
       <c r="A275" s="1" t="s">
         <v>43</v>
       </c>
@@ -20819,40 +20829,40 @@
     </row>
     <row r="276" spans="1:23">
       <c r="A276" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B276" s="2">
-        <v>43462</v>
+        <v>42004</v>
       </c>
       <c r="C276" s="3">
-        <v>8664042</v>
-      </c>
-      <c r="D276">
-        <v>600</v>
+        <v>241405603</v>
+      </c>
+      <c r="D276" s="3">
+        <v>61518</v>
       </c>
       <c r="E276" s="3">
-        <v>700151</v>
+        <v>58164320</v>
       </c>
       <c r="F276" s="3">
-        <v>9364193</v>
+        <v>299569923</v>
       </c>
       <c r="G276" s="3">
-        <v>3225809</v>
+        <v>202857866</v>
       </c>
       <c r="H276" s="3">
-        <v>26896</v>
+        <v>26704961</v>
       </c>
       <c r="I276" s="3">
-        <v>3252705</v>
+        <v>229562827</v>
       </c>
       <c r="J276" s="3">
-        <v>6111488</v>
+        <v>70007096</v>
       </c>
       <c r="K276" s="3">
-        <v>9364193</v>
+        <v>299569923</v>
       </c>
       <c r="L276" s="3">
-        <v>1207456</v>
+        <v>24682674</v>
       </c>
       <c r="M276">
         <v>0</v>
@@ -20864,31 +20874,31 @@
         <v>0</v>
       </c>
       <c r="P276" s="3">
-        <v>1207456</v>
+        <v>24682674</v>
       </c>
       <c r="Q276">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="R276" s="3">
-        <v>694442</v>
+        <v>4844257</v>
       </c>
       <c r="S276">
-        <v>33.97</v>
+        <v>-37.6</v>
       </c>
       <c r="T276">
-        <v>5.82</v>
+        <v>0.61</v>
       </c>
       <c r="U276">
-        <v>6.81</v>
+        <v>0.82</v>
       </c>
       <c r="V276">
-        <v>22.25</v>
+        <v>5.25</v>
       </c>
       <c r="W276">
-        <v>6.53</v>
-      </c>
-    </row>
-    <row r="277" spans="1:23">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" hidden="1">
       <c r="A277" s="1" t="s">
         <v>45</v>
       </c>
@@ -20956,7 +20966,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:23" hidden="1">
       <c r="A278" s="1" t="s">
         <v>46</v>
       </c>
@@ -21029,40 +21039,40 @@
     </row>
     <row r="279" spans="1:23">
       <c r="A279" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B279" s="2">
-        <v>43462</v>
+        <v>41639</v>
       </c>
       <c r="C279" s="3">
-        <v>19033549</v>
+        <v>216306422</v>
       </c>
       <c r="D279" s="3">
-        <v>6941</v>
+        <v>61518</v>
       </c>
       <c r="E279" s="3">
-        <v>29012602</v>
+        <v>54235352</v>
       </c>
       <c r="F279" s="3">
-        <v>48046151</v>
+        <v>270541774</v>
       </c>
       <c r="G279" s="3">
-        <v>9437584</v>
+        <v>168348939</v>
       </c>
       <c r="H279" s="3">
-        <v>805240</v>
+        <v>35996817</v>
       </c>
       <c r="I279" s="3">
-        <v>10242824</v>
+        <v>204345756</v>
       </c>
       <c r="J279" s="3">
-        <v>37803327</v>
+        <v>66196018</v>
       </c>
       <c r="K279" s="3">
-        <v>48046151</v>
+        <v>270541774</v>
       </c>
       <c r="L279" s="3">
-        <v>9367677</v>
+        <v>23781603</v>
       </c>
       <c r="M279">
         <v>0</v>
@@ -21074,31 +21084,31 @@
         <v>0</v>
       </c>
       <c r="P279" s="3">
-        <v>9367677</v>
-      </c>
-      <c r="Q279" s="3">
-        <v>-353087</v>
+        <v>23781603</v>
+      </c>
+      <c r="Q279">
+        <v>0</v>
       </c>
       <c r="R279" s="3">
-        <v>3472714</v>
+        <v>7915187</v>
       </c>
       <c r="S279">
-        <v>27.71</v>
+        <v>-20.62</v>
       </c>
       <c r="T279">
-        <v>10.72</v>
+        <v>0.92</v>
       </c>
       <c r="U279">
-        <v>11.29</v>
+        <v>1.27</v>
       </c>
       <c r="V279">
-        <v>15.57</v>
+        <v>4.84</v>
       </c>
       <c r="W279">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="280" spans="1:23">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" hidden="1">
       <c r="A280" s="1" t="s">
         <v>48</v>
       </c>
@@ -21169,7 +21179,7 @@
         <v>-4.54</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:23" hidden="1">
       <c r="A281" s="1" t="s">
         <v>49</v>
       </c>
@@ -21240,7 +21250,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:23" hidden="1">
       <c r="A282" s="1" t="s">
         <v>50</v>
       </c>
@@ -21311,7 +21321,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:23" hidden="1">
       <c r="A283" s="1" t="s">
         <v>51</v>
       </c>
@@ -21382,7 +21392,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:23" hidden="1">
       <c r="A284" s="1" t="s">
         <v>52</v>
       </c>
@@ -21453,7 +21463,7 @@
         <v>-19.329999999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:23" hidden="1">
       <c r="A285" s="1" t="s">
         <v>53</v>
       </c>
@@ -21524,7 +21534,7 @@
         <v>-13.26</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:23" hidden="1">
       <c r="A286" s="1" t="s">
         <v>54</v>
       </c>
@@ -21595,7 +21605,7 @@
         <v>5.51</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:23" hidden="1">
       <c r="A287" s="1" t="s">
         <v>55</v>
       </c>
@@ -21666,7 +21676,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:23" hidden="1">
       <c r="A288" s="1" t="s">
         <v>56</v>
       </c>
@@ -21734,7 +21744,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="289" spans="1:23">
+    <row r="289" spans="1:23" hidden="1">
       <c r="A289" s="1" t="s">
         <v>57</v>
       </c>
@@ -21805,7 +21815,7 @@
         <v>10.79</v>
       </c>
     </row>
-    <row r="290" spans="1:23">
+    <row r="290" spans="1:23" hidden="1">
       <c r="A290" s="1" t="s">
         <v>58</v>
       </c>
@@ -21876,7 +21886,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="291" spans="1:23">
+    <row r="291" spans="1:23" hidden="1">
       <c r="A291" s="1" t="s">
         <v>59</v>
       </c>
@@ -21947,7 +21957,7 @@
         <v>16.05</v>
       </c>
     </row>
-    <row r="292" spans="1:23">
+    <row r="292" spans="1:23" hidden="1">
       <c r="A292" s="1" t="s">
         <v>60</v>
       </c>
@@ -22018,7 +22028,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="293" spans="1:23">
+    <row r="293" spans="1:23" hidden="1">
       <c r="A293" s="1" t="s">
         <v>61</v>
       </c>
@@ -22089,7 +22099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:23">
+    <row r="294" spans="1:23" hidden="1">
       <c r="A294" s="1" t="s">
         <v>62</v>
       </c>
@@ -22160,7 +22170,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="295" spans="1:23">
+    <row r="295" spans="1:23" hidden="1">
       <c r="A295" s="1" t="s">
         <v>63</v>
       </c>
@@ -22228,7 +22238,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="296" spans="1:23">
+    <row r="296" spans="1:23" hidden="1">
       <c r="A296" s="1" t="s">
         <v>65</v>
       </c>
@@ -22299,7 +22309,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="297" spans="1:23">
+    <row r="297" spans="1:23" hidden="1">
       <c r="A297" s="1" t="s">
         <v>66</v>
       </c>
@@ -22370,7 +22380,7 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="298" spans="1:23">
+    <row r="298" spans="1:23" hidden="1">
       <c r="A298" s="1" t="s">
         <v>67</v>
       </c>
@@ -22441,7 +22451,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="299" spans="1:23">
+    <row r="299" spans="1:23" hidden="1">
       <c r="A299" s="1" t="s">
         <v>68</v>
       </c>
@@ -22514,40 +22524,40 @@
     </row>
     <row r="300" spans="1:23">
       <c r="A300" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B300" s="2">
-        <v>43098</v>
+        <v>44925</v>
       </c>
       <c r="C300" s="3">
-        <v>145063307</v>
-      </c>
-      <c r="D300" s="3">
-        <v>55900</v>
+        <v>13993593</v>
+      </c>
+      <c r="D300">
+        <v>801</v>
       </c>
       <c r="E300" s="3">
-        <v>44932450</v>
+        <v>774221</v>
       </c>
       <c r="F300" s="3">
-        <v>189995757</v>
+        <v>14767814</v>
       </c>
       <c r="G300" s="3">
-        <v>114596707</v>
+        <v>5813692</v>
       </c>
       <c r="H300" s="3">
-        <v>1631621</v>
+        <v>60195</v>
       </c>
       <c r="I300" s="3">
-        <v>116228328</v>
+        <v>5873887</v>
       </c>
       <c r="J300" s="3">
-        <v>73767429</v>
+        <v>8893927</v>
       </c>
       <c r="K300" s="3">
-        <v>189995757</v>
+        <v>14767814</v>
       </c>
       <c r="L300" s="3">
-        <v>23508670</v>
+        <v>1219930</v>
       </c>
       <c r="M300">
         <v>0</v>
@@ -22559,31 +22569,31 @@
         <v>0</v>
       </c>
       <c r="P300" s="3">
-        <v>23508670</v>
-      </c>
-      <c r="Q300" s="3">
-        <v>-1248722</v>
+        <v>1219930</v>
+      </c>
+      <c r="Q300">
+        <v>-12</v>
       </c>
       <c r="R300" s="3">
-        <v>3371594</v>
+        <v>1430688</v>
       </c>
       <c r="S300">
-        <v>-71.930000000000007</v>
+        <v>-50.13</v>
       </c>
       <c r="T300">
-        <v>1.23</v>
+        <v>7.17</v>
       </c>
       <c r="U300">
-        <v>1.57</v>
+        <v>8.36</v>
       </c>
       <c r="V300">
-        <v>12.91</v>
+        <v>21.61</v>
       </c>
       <c r="W300">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="301" spans="1:23">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="301" spans="1:23" hidden="1">
       <c r="A301" s="1" t="s">
         <v>10</v>
       </c>
@@ -22654,7 +22664,7 @@
         <v>-22.72</v>
       </c>
     </row>
-    <row r="302" spans="1:23">
+    <row r="302" spans="1:23" hidden="1">
       <c r="A302" s="1" t="s">
         <v>11</v>
       </c>
@@ -22725,7 +22735,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="303" spans="1:23">
+    <row r="303" spans="1:23" hidden="1">
       <c r="A303" s="1" t="s">
         <v>12</v>
       </c>
@@ -22796,7 +22806,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="304" spans="1:23">
+    <row r="304" spans="1:23" hidden="1">
       <c r="A304" s="1" t="s">
         <v>13</v>
       </c>
@@ -22867,7 +22877,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="305" spans="1:23">
+    <row r="305" spans="1:23" hidden="1">
       <c r="A305" s="1" t="s">
         <v>14</v>
       </c>
@@ -22938,7 +22948,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="306" spans="1:23">
+    <row r="306" spans="1:23" hidden="1">
       <c r="A306" s="1" t="s">
         <v>15</v>
       </c>
@@ -23009,7 +23019,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="307" spans="1:23">
+    <row r="307" spans="1:23" hidden="1">
       <c r="A307" s="1" t="s">
         <v>16</v>
       </c>
@@ -23080,7 +23090,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="308" spans="1:23">
+    <row r="308" spans="1:23" hidden="1">
       <c r="A308" s="1" t="s">
         <v>17</v>
       </c>
@@ -23151,7 +23161,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="309" spans="1:23">
+    <row r="309" spans="1:23" hidden="1">
       <c r="A309" s="1" t="s">
         <v>18</v>
       </c>
@@ -23222,7 +23232,7 @@
         <v>-27.84</v>
       </c>
     </row>
-    <row r="310" spans="1:23">
+    <row r="310" spans="1:23" hidden="1">
       <c r="A310" s="1" t="s">
         <v>19</v>
       </c>
@@ -23293,7 +23303,7 @@
         <v>-2.56</v>
       </c>
     </row>
-    <row r="311" spans="1:23">
+    <row r="311" spans="1:23" hidden="1">
       <c r="A311" s="1" t="s">
         <v>20</v>
       </c>
@@ -23361,7 +23371,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="312" spans="1:23">
+    <row r="312" spans="1:23" hidden="1">
       <c r="A312" s="1" t="s">
         <v>21</v>
       </c>
@@ -23429,7 +23439,7 @@
         <v>5.28</v>
       </c>
     </row>
-    <row r="313" spans="1:23">
+    <row r="313" spans="1:23" hidden="1">
       <c r="A313" s="1" t="s">
         <v>22</v>
       </c>
@@ -23500,7 +23510,7 @@
         <v>-23.17</v>
       </c>
     </row>
-    <row r="314" spans="1:23">
+    <row r="314" spans="1:23" hidden="1">
       <c r="A314" s="1" t="s">
         <v>23</v>
       </c>
@@ -23571,7 +23581,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="315" spans="1:23">
+    <row r="315" spans="1:23" hidden="1">
       <c r="A315" s="1" t="s">
         <v>24</v>
       </c>
@@ -23642,7 +23652,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="316" spans="1:23">
+    <row r="316" spans="1:23" hidden="1">
       <c r="A316" s="1" t="s">
         <v>25</v>
       </c>
@@ -23713,7 +23723,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="317" spans="1:23">
+    <row r="317" spans="1:23" hidden="1">
       <c r="A317" s="1" t="s">
         <v>26</v>
       </c>
@@ -23784,7 +23794,7 @@
         <v>15.09</v>
       </c>
     </row>
-    <row r="318" spans="1:23">
+    <row r="318" spans="1:23" hidden="1">
       <c r="A318" s="1" t="s">
         <v>27</v>
       </c>
@@ -23852,7 +23862,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="319" spans="1:23">
+    <row r="319" spans="1:23" hidden="1">
       <c r="A319" s="1" t="s">
         <v>28</v>
       </c>
@@ -23923,7 +23933,7 @@
         <v>-5.44</v>
       </c>
     </row>
-    <row r="320" spans="1:23">
+    <row r="320" spans="1:23" hidden="1">
       <c r="A320" s="1" t="s">
         <v>29</v>
       </c>
@@ -23994,7 +24004,7 @@
         <v>-2.34</v>
       </c>
     </row>
-    <row r="321" spans="1:23">
+    <row r="321" spans="1:23" hidden="1">
       <c r="A321" s="1" t="s">
         <v>30</v>
       </c>
@@ -24065,7 +24075,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="322" spans="1:23">
+    <row r="322" spans="1:23" hidden="1">
       <c r="A322" s="1" t="s">
         <v>31</v>
       </c>
@@ -24133,7 +24143,7 @@
         <v>-2.38</v>
       </c>
     </row>
-    <row r="323" spans="1:23">
+    <row r="323" spans="1:23" hidden="1">
       <c r="A323" s="1" t="s">
         <v>32</v>
       </c>
@@ -24204,7 +24214,7 @@
         <v>7.77</v>
       </c>
     </row>
-    <row r="324" spans="1:23">
+    <row r="324" spans="1:23" hidden="1">
       <c r="A324" s="1" t="s">
         <v>33</v>
       </c>
@@ -24272,7 +24282,7 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="325" spans="1:23">
+    <row r="325" spans="1:23" hidden="1">
       <c r="A325" s="1" t="s">
         <v>34</v>
       </c>
@@ -24343,7 +24353,7 @@
         <v>11.32</v>
       </c>
     </row>
-    <row r="326" spans="1:23">
+    <row r="326" spans="1:23" hidden="1">
       <c r="A326" s="1" t="s">
         <v>35</v>
       </c>
@@ -24414,7 +24424,7 @@
         <v>6.63</v>
       </c>
     </row>
-    <row r="327" spans="1:23">
+    <row r="327" spans="1:23" hidden="1">
       <c r="A327" s="1" t="s">
         <v>36</v>
       </c>
@@ -24485,7 +24495,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="328" spans="1:23">
+    <row r="328" spans="1:23" hidden="1">
       <c r="A328" s="1" t="s">
         <v>37</v>
       </c>
@@ -24556,7 +24566,7 @@
         <v>14.24</v>
       </c>
     </row>
-    <row r="329" spans="1:23">
+    <row r="329" spans="1:23" hidden="1">
       <c r="A329" s="1" t="s">
         <v>38</v>
       </c>
@@ -24627,7 +24637,7 @@
         <v>-10.88</v>
       </c>
     </row>
-    <row r="330" spans="1:23">
+    <row r="330" spans="1:23" hidden="1">
       <c r="A330" s="1" t="s">
         <v>39</v>
       </c>
@@ -24695,7 +24705,7 @@
         <v>-23.6</v>
       </c>
     </row>
-    <row r="331" spans="1:23">
+    <row r="331" spans="1:23" hidden="1">
       <c r="A331" s="1" t="s">
         <v>40</v>
       </c>
@@ -24768,40 +24778,40 @@
     </row>
     <row r="332" spans="1:23">
       <c r="A332" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B332" s="2">
-        <v>43098</v>
+        <v>44560</v>
       </c>
       <c r="C332" s="3">
-        <v>270205662</v>
-      </c>
-      <c r="D332" s="3">
-        <v>82955</v>
+        <v>15422807</v>
+      </c>
+      <c r="D332">
+        <v>741</v>
       </c>
       <c r="E332" s="3">
-        <v>56447720</v>
+        <v>471143</v>
       </c>
       <c r="F332" s="3">
-        <v>326653382</v>
+        <v>15893950</v>
       </c>
       <c r="G332" s="3">
-        <v>254191674</v>
+        <v>7013600</v>
       </c>
       <c r="H332" s="3">
-        <v>6040646</v>
+        <v>91506</v>
       </c>
       <c r="I332" s="3">
-        <v>260232320</v>
+        <v>7105106</v>
       </c>
       <c r="J332" s="3">
-        <v>66421062</v>
+        <v>8788844</v>
       </c>
       <c r="K332" s="3">
-        <v>326653382</v>
+        <v>15893950</v>
       </c>
       <c r="L332" s="3">
-        <v>27486880</v>
+        <v>1229254</v>
       </c>
       <c r="M332">
         <v>0</v>
@@ -24813,31 +24823,31 @@
         <v>0</v>
       </c>
       <c r="P332" s="3">
-        <v>27486880</v>
-      </c>
-      <c r="Q332" s="3">
-        <v>-1753005</v>
+        <v>1229254</v>
+      </c>
+      <c r="Q332">
+        <v>0</v>
       </c>
       <c r="R332" s="3">
-        <v>6158411</v>
+        <v>3059966</v>
       </c>
       <c r="S332">
-        <v>45.72</v>
+        <v>63.06</v>
       </c>
       <c r="T332">
-        <v>0.52</v>
+        <v>12.45</v>
       </c>
       <c r="U332">
-        <v>0.74</v>
+        <v>15.48</v>
       </c>
       <c r="V332">
-        <v>3.78</v>
+        <v>28.15</v>
       </c>
       <c r="W332">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="333" spans="1:23">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="333" spans="1:23" hidden="1">
       <c r="A333" s="1" t="s">
         <v>42</v>
       </c>
@@ -24905,7 +24915,7 @@
         <v>11.54</v>
       </c>
     </row>
-    <row r="334" spans="1:23">
+    <row r="334" spans="1:23" hidden="1">
       <c r="A334" s="1" t="s">
         <v>43</v>
       </c>
@@ -24981,37 +24991,37 @@
         <v>44</v>
       </c>
       <c r="B335" s="2">
-        <v>43098</v>
+        <v>44196</v>
       </c>
       <c r="C335" s="3">
-        <v>8605071</v>
+        <v>11226039</v>
       </c>
       <c r="D335">
-        <v>600</v>
+        <v>698</v>
       </c>
       <c r="E335" s="3">
-        <v>362132</v>
+        <v>489772</v>
       </c>
       <c r="F335" s="3">
-        <v>8967203</v>
+        <v>11715811</v>
       </c>
       <c r="G335" s="3">
-        <v>3252207</v>
+        <v>4325667</v>
       </c>
       <c r="H335" s="3">
-        <v>23003</v>
+        <v>81708</v>
       </c>
       <c r="I335" s="3">
-        <v>3275210</v>
+        <v>4407375</v>
       </c>
       <c r="J335" s="3">
-        <v>5691993</v>
+        <v>7308436</v>
       </c>
       <c r="K335" s="3">
-        <v>8967203</v>
+        <v>11715811</v>
       </c>
       <c r="L335" s="3">
-        <v>1207456</v>
+        <v>1206424</v>
       </c>
       <c r="M335">
         <v>0</v>
@@ -25023,31 +25033,31 @@
         <v>0</v>
       </c>
       <c r="P335" s="3">
-        <v>1207456</v>
+        <v>1206424</v>
       </c>
       <c r="Q335">
         <v>0</v>
       </c>
       <c r="R335" s="3">
-        <v>561927</v>
+        <v>1855783</v>
       </c>
       <c r="S335">
-        <v>258.64999999999998</v>
+        <v>132.07</v>
       </c>
       <c r="T335">
-        <v>4.8</v>
+        <v>8.42</v>
       </c>
       <c r="U335">
-        <v>6.1</v>
+        <v>10.36</v>
       </c>
       <c r="V335">
-        <v>21.26</v>
+        <v>21.51</v>
       </c>
       <c r="W335">
-        <v>5.48</v>
-      </c>
-    </row>
-    <row r="336" spans="1:23">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="336" spans="1:23" hidden="1">
       <c r="A336" s="1" t="s">
         <v>45</v>
       </c>
@@ -25115,7 +25125,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="337" spans="1:23">
+    <row r="337" spans="1:23" hidden="1">
       <c r="A337" s="1" t="s">
         <v>46</v>
       </c>
@@ -25188,40 +25198,40 @@
     </row>
     <row r="338" spans="1:23">
       <c r="A338" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B338" s="2">
-        <v>43098</v>
+        <v>43830</v>
       </c>
       <c r="C338" s="3">
-        <v>20499461</v>
-      </c>
-      <c r="D338" s="3">
-        <v>6974</v>
+        <v>9706137</v>
+      </c>
+      <c r="D338">
+        <v>629</v>
       </c>
       <c r="E338" s="3">
-        <v>26685802</v>
+        <v>560035</v>
       </c>
       <c r="F338" s="3">
-        <v>47185263</v>
+        <v>10266172</v>
       </c>
       <c r="G338" s="3">
-        <v>11651825</v>
+        <v>3747151</v>
       </c>
       <c r="H338" s="3">
-        <v>784822</v>
+        <v>64554</v>
       </c>
       <c r="I338" s="3">
-        <v>12436647</v>
+        <v>3811705</v>
       </c>
       <c r="J338" s="3">
-        <v>34748616</v>
+        <v>6454467</v>
       </c>
       <c r="K338" s="3">
-        <v>47185263</v>
+        <v>10266172</v>
       </c>
       <c r="L338" s="3">
-        <v>8190022</v>
+        <v>1206472</v>
       </c>
       <c r="M338">
         <v>0</v>
@@ -25233,31 +25243,31 @@
         <v>0</v>
       </c>
       <c r="P338" s="3">
-        <v>8190022</v>
-      </c>
-      <c r="Q338" s="3">
-        <v>-522449</v>
+        <v>1206472</v>
+      </c>
+      <c r="Q338">
+        <v>0</v>
       </c>
       <c r="R338" s="3">
-        <v>2902288</v>
+        <v>784917</v>
       </c>
       <c r="S338">
-        <v>-5.0599999999999996</v>
+        <v>9.66</v>
       </c>
       <c r="T338">
-        <v>5.29</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="U338">
-        <v>5.95</v>
+        <v>5.85</v>
       </c>
       <c r="V338">
-        <v>11.62</v>
+        <v>18.18</v>
       </c>
       <c r="W338">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="339" spans="1:23">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="339" spans="1:23" hidden="1">
       <c r="A339" s="1" t="s">
         <v>48</v>
       </c>
@@ -25322,7 +25332,7 @@
         <v>15.71</v>
       </c>
     </row>
-    <row r="340" spans="1:23">
+    <row r="340" spans="1:23" hidden="1">
       <c r="A340" s="1" t="s">
         <v>49</v>
       </c>
@@ -25393,7 +25403,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="341" spans="1:23">
+    <row r="341" spans="1:23" hidden="1">
       <c r="A341" s="1" t="s">
         <v>50</v>
       </c>
@@ -25464,7 +25474,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="342" spans="1:23">
+    <row r="342" spans="1:23" hidden="1">
       <c r="A342" s="1" t="s">
         <v>51</v>
       </c>
@@ -25535,7 +25545,7 @@
         <v>6.48</v>
       </c>
     </row>
-    <row r="343" spans="1:23">
+    <row r="343" spans="1:23" hidden="1">
       <c r="A343" s="1" t="s">
         <v>52</v>
       </c>
@@ -25606,7 +25616,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="344" spans="1:23">
+    <row r="344" spans="1:23" hidden="1">
       <c r="A344" s="1" t="s">
         <v>53</v>
       </c>
@@ -25677,7 +25687,7 @@
         <v>-13.44</v>
       </c>
     </row>
-    <row r="345" spans="1:23">
+    <row r="345" spans="1:23" hidden="1">
       <c r="A345" s="1" t="s">
         <v>54</v>
       </c>
@@ -25748,7 +25758,7 @@
         <v>13.67</v>
       </c>
     </row>
-    <row r="346" spans="1:23">
+    <row r="346" spans="1:23" hidden="1">
       <c r="A346" s="1" t="s">
         <v>55</v>
       </c>
@@ -25819,7 +25829,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="347" spans="1:23">
+    <row r="347" spans="1:23" hidden="1">
       <c r="A347" s="1" t="s">
         <v>56</v>
       </c>
@@ -25887,7 +25897,7 @@
         <v>14.23</v>
       </c>
     </row>
-    <row r="348" spans="1:23">
+    <row r="348" spans="1:23" hidden="1">
       <c r="A348" s="1" t="s">
         <v>57</v>
       </c>
@@ -25958,7 +25968,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="349" spans="1:23">
+    <row r="349" spans="1:23" hidden="1">
       <c r="A349" s="1" t="s">
         <v>58</v>
       </c>
@@ -26029,7 +26039,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="350" spans="1:23">
+    <row r="350" spans="1:23" hidden="1">
       <c r="A350" s="1" t="s">
         <v>59</v>
       </c>
@@ -26100,7 +26110,7 @@
         <v>17.91</v>
       </c>
     </row>
-    <row r="351" spans="1:23">
+    <row r="351" spans="1:23" hidden="1">
       <c r="A351" s="1" t="s">
         <v>60</v>
       </c>
@@ -26171,7 +26181,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="352" spans="1:23">
+    <row r="352" spans="1:23" hidden="1">
       <c r="A352" s="1" t="s">
         <v>61</v>
       </c>
@@ -26242,7 +26252,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="353" spans="1:23">
+    <row r="353" spans="1:23" hidden="1">
       <c r="A353" s="1" t="s">
         <v>62</v>
       </c>
@@ -26313,7 +26323,7 @@
         <v>12.72</v>
       </c>
     </row>
-    <row r="354" spans="1:23">
+    <row r="354" spans="1:23" hidden="1">
       <c r="A354" s="1" t="s">
         <v>63</v>
       </c>
@@ -26381,7 +26391,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="355" spans="1:23">
+    <row r="355" spans="1:23" hidden="1">
       <c r="A355" s="1" t="s">
         <v>65</v>
       </c>
@@ -26452,7 +26462,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="356" spans="1:23">
+    <row r="356" spans="1:23" hidden="1">
       <c r="A356" s="1" t="s">
         <v>66</v>
       </c>
@@ -26523,7 +26533,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="357" spans="1:23">
+    <row r="357" spans="1:23" hidden="1">
       <c r="A357" s="1" t="s">
         <v>67</v>
       </c>
@@ -26594,7 +26604,7 @@
         <v>12.39</v>
       </c>
     </row>
-    <row r="358" spans="1:23">
+    <row r="358" spans="1:23" hidden="1">
       <c r="A358" s="1" t="s">
         <v>68</v>
       </c>
@@ -26667,40 +26677,40 @@
     </row>
     <row r="359" spans="1:23">
       <c r="A359" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B359" s="2">
-        <v>42734</v>
+        <v>43462</v>
       </c>
       <c r="C359" s="3">
-        <v>157924039</v>
-      </c>
-      <c r="D359" s="3">
-        <v>54589</v>
+        <v>8664042</v>
+      </c>
+      <c r="D359">
+        <v>600</v>
       </c>
       <c r="E359" s="3">
-        <v>52932749</v>
+        <v>700151</v>
       </c>
       <c r="F359" s="3">
-        <v>210856788</v>
+        <v>9364193</v>
       </c>
       <c r="G359" s="3">
-        <v>116321118</v>
+        <v>3225809</v>
       </c>
       <c r="H359" s="3">
-        <v>15255234</v>
+        <v>26896</v>
       </c>
       <c r="I359" s="3">
-        <v>131576352</v>
+        <v>3252705</v>
       </c>
       <c r="J359" s="3">
-        <v>79280436</v>
+        <v>6111488</v>
       </c>
       <c r="K359" s="3">
-        <v>210856788</v>
+        <v>9364193</v>
       </c>
       <c r="L359" s="3">
-        <v>23508670</v>
+        <v>1207456</v>
       </c>
       <c r="M359">
         <v>0</v>
@@ -26712,31 +26722,31 @@
         <v>0</v>
       </c>
       <c r="P359" s="3">
-        <v>23508670</v>
-      </c>
-      <c r="Q359" s="3">
-        <v>-1248722</v>
+        <v>1207456</v>
+      </c>
+      <c r="Q359">
+        <v>-480</v>
       </c>
       <c r="R359" s="3">
-        <v>12643027</v>
+        <v>694442</v>
       </c>
       <c r="S359">
-        <v>28.17</v>
+        <v>33.97</v>
       </c>
       <c r="T359">
-        <v>4.08</v>
+        <v>5.82</v>
       </c>
       <c r="U359">
-        <v>5.51</v>
+        <v>6.81</v>
       </c>
       <c r="V359">
-        <v>13.62</v>
+        <v>22.25</v>
       </c>
       <c r="W359">
-        <v>5.54</v>
-      </c>
-    </row>
-    <row r="360" spans="1:23">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="360" spans="1:23" hidden="1">
       <c r="A360" s="1" t="s">
         <v>10</v>
       </c>
@@ -26807,7 +26817,7 @@
         <v>-16.239999999999998</v>
       </c>
     </row>
-    <row r="361" spans="1:23">
+    <row r="361" spans="1:23" hidden="1">
       <c r="A361" s="1" t="s">
         <v>11</v>
       </c>
@@ -26878,7 +26888,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="362" spans="1:23">
+    <row r="362" spans="1:23" hidden="1">
       <c r="A362" s="1" t="s">
         <v>12</v>
       </c>
@@ -26949,7 +26959,7 @@
         <v>-5.98</v>
       </c>
     </row>
-    <row r="363" spans="1:23">
+    <row r="363" spans="1:23" hidden="1">
       <c r="A363" s="1" t="s">
         <v>13</v>
       </c>
@@ -27020,7 +27030,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="364" spans="1:23">
+    <row r="364" spans="1:23" hidden="1">
       <c r="A364" s="1" t="s">
         <v>14</v>
       </c>
@@ -27091,7 +27101,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="365" spans="1:23">
+    <row r="365" spans="1:23" hidden="1">
       <c r="A365" s="1" t="s">
         <v>15</v>
       </c>
@@ -27162,7 +27172,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="366" spans="1:23">
+    <row r="366" spans="1:23" hidden="1">
       <c r="A366" s="1" t="s">
         <v>16</v>
       </c>
@@ -27233,7 +27243,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="367" spans="1:23">
+    <row r="367" spans="1:23" hidden="1">
       <c r="A367" s="1" t="s">
         <v>17</v>
       </c>
@@ -27304,7 +27314,7 @@
         <v>10.62</v>
       </c>
     </row>
-    <row r="368" spans="1:23">
+    <row r="368" spans="1:23" hidden="1">
       <c r="A368" s="1" t="s">
         <v>18</v>
       </c>
@@ -27375,7 +27385,7 @@
         <v>-19.489999999999998</v>
       </c>
     </row>
-    <row r="369" spans="1:23">
+    <row r="369" spans="1:23" hidden="1">
       <c r="A369" s="1" t="s">
         <v>19</v>
       </c>
@@ -27446,7 +27456,7 @@
         <v>-4.4800000000000004</v>
       </c>
     </row>
-    <row r="370" spans="1:23">
+    <row r="370" spans="1:23" hidden="1">
       <c r="A370" s="1" t="s">
         <v>20</v>
       </c>
@@ -27517,7 +27527,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="371" spans="1:23">
+    <row r="371" spans="1:23" hidden="1">
       <c r="A371" s="1" t="s">
         <v>21</v>
       </c>
@@ -27588,7 +27598,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="372" spans="1:23">
+    <row r="372" spans="1:23" hidden="1">
       <c r="A372" s="1" t="s">
         <v>22</v>
       </c>
@@ -27659,7 +27669,7 @@
         <v>-11.45</v>
       </c>
     </row>
-    <row r="373" spans="1:23">
+    <row r="373" spans="1:23" hidden="1">
       <c r="A373" s="1" t="s">
         <v>23</v>
       </c>
@@ -27730,7 +27740,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="374" spans="1:23">
+    <row r="374" spans="1:23" hidden="1">
       <c r="A374" s="1" t="s">
         <v>24</v>
       </c>
@@ -27801,7 +27811,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="375" spans="1:23">
+    <row r="375" spans="1:23" hidden="1">
       <c r="A375" s="1" t="s">
         <v>25</v>
       </c>
@@ -27872,7 +27882,7 @@
         <v>15.79</v>
       </c>
     </row>
-    <row r="376" spans="1:23">
+    <row r="376" spans="1:23" hidden="1">
       <c r="A376" s="1" t="s">
         <v>26</v>
       </c>
@@ -27943,7 +27953,7 @@
         <v>17.07</v>
       </c>
     </row>
-    <row r="377" spans="1:23">
+    <row r="377" spans="1:23" hidden="1">
       <c r="A377" s="1" t="s">
         <v>27</v>
       </c>
@@ -28014,7 +28024,7 @@
         <v>-1.89</v>
       </c>
     </row>
-    <row r="378" spans="1:23">
+    <row r="378" spans="1:23" hidden="1">
       <c r="A378" s="1" t="s">
         <v>28</v>
       </c>
@@ -28085,7 +28095,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="379" spans="1:23">
+    <row r="379" spans="1:23" hidden="1">
       <c r="A379" s="1" t="s">
         <v>29</v>
       </c>
@@ -28156,7 +28166,7 @@
         <v>-0.88</v>
       </c>
     </row>
-    <row r="380" spans="1:23">
+    <row r="380" spans="1:23" hidden="1">
       <c r="A380" s="1" t="s">
         <v>30</v>
       </c>
@@ -28227,7 +28237,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="381" spans="1:23">
+    <row r="381" spans="1:23" hidden="1">
       <c r="A381" s="1" t="s">
         <v>31</v>
       </c>
@@ -28298,7 +28308,7 @@
         <v>-5.68</v>
       </c>
     </row>
-    <row r="382" spans="1:23">
+    <row r="382" spans="1:23" hidden="1">
       <c r="A382" s="1" t="s">
         <v>32</v>
       </c>
@@ -28369,7 +28379,7 @@
         <v>12.93</v>
       </c>
     </row>
-    <row r="383" spans="1:23">
+    <row r="383" spans="1:23" hidden="1">
       <c r="A383" s="1" t="s">
         <v>33</v>
       </c>
@@ -28440,7 +28450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:23">
+    <row r="384" spans="1:23" hidden="1">
       <c r="A384" s="1" t="s">
         <v>34</v>
       </c>
@@ -28511,7 +28521,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="385" spans="1:23">
+    <row r="385" spans="1:23" hidden="1">
       <c r="A385" s="1" t="s">
         <v>35</v>
       </c>
@@ -28582,7 +28592,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="386" spans="1:23">
+    <row r="386" spans="1:23" hidden="1">
       <c r="A386" s="1" t="s">
         <v>36</v>
       </c>
@@ -28653,7 +28663,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="387" spans="1:23">
+    <row r="387" spans="1:23" hidden="1">
       <c r="A387" s="1" t="s">
         <v>37</v>
       </c>
@@ -28724,7 +28734,7 @@
         <v>17.48</v>
       </c>
     </row>
-    <row r="388" spans="1:23">
+    <row r="388" spans="1:23" hidden="1">
       <c r="A388" s="1" t="s">
         <v>38</v>
       </c>
@@ -28795,7 +28805,7 @@
         <v>-28.98</v>
       </c>
     </row>
-    <row r="389" spans="1:23">
+    <row r="389" spans="1:23" hidden="1">
       <c r="A389" s="1" t="s">
         <v>39</v>
       </c>
@@ -28866,7 +28876,7 @@
         <v>-7.23</v>
       </c>
     </row>
-    <row r="390" spans="1:23">
+    <row r="390" spans="1:23" hidden="1">
       <c r="A390" s="1" t="s">
         <v>40</v>
       </c>
@@ -28939,40 +28949,40 @@
     </row>
     <row r="391" spans="1:23">
       <c r="A391" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B391" s="2">
-        <v>42734</v>
+        <v>43098</v>
       </c>
       <c r="C391" s="3">
-        <v>225656731</v>
-      </c>
-      <c r="D391" s="3">
-        <v>83278</v>
+        <v>8605071</v>
+      </c>
+      <c r="D391">
+        <v>600</v>
       </c>
       <c r="E391" s="3">
-        <v>57098827</v>
+        <v>362132</v>
       </c>
       <c r="F391" s="3">
-        <v>282755558</v>
+        <v>8967203</v>
       </c>
       <c r="G391" s="3">
-        <v>197453207</v>
+        <v>3252207</v>
       </c>
       <c r="H391" s="3">
-        <v>17333902</v>
+        <v>23003</v>
       </c>
       <c r="I391" s="3">
-        <v>214787109</v>
+        <v>3275210</v>
       </c>
       <c r="J391" s="3">
-        <v>67968449</v>
+        <v>5691993</v>
       </c>
       <c r="K391" s="3">
-        <v>282755558</v>
+        <v>8967203</v>
       </c>
       <c r="L391" s="3">
-        <v>26503165</v>
+        <v>1207456</v>
       </c>
       <c r="M391">
         <v>0</v>
@@ -28984,31 +28994,31 @@
         <v>0</v>
       </c>
       <c r="P391" s="3">
-        <v>26503165</v>
-      </c>
-      <c r="Q391" s="3">
-        <v>-2592278</v>
+        <v>1207456</v>
+      </c>
+      <c r="Q391">
+        <v>0</v>
       </c>
       <c r="R391" s="3">
-        <v>4757100</v>
+        <v>561927</v>
       </c>
       <c r="S391">
-        <v>135.5</v>
+        <v>258.64999999999998</v>
       </c>
       <c r="T391">
-        <v>0.45</v>
+        <v>4.8</v>
       </c>
       <c r="U391">
-        <v>0.72</v>
+        <v>6.1</v>
       </c>
       <c r="V391">
-        <v>4.8</v>
+        <v>21.26</v>
       </c>
       <c r="W391">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="392" spans="1:23">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="392" spans="1:23" hidden="1">
       <c r="A392" s="1" t="s">
         <v>42</v>
       </c>
@@ -29079,7 +29089,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="393" spans="1:23">
+    <row r="393" spans="1:23" hidden="1">
       <c r="A393" s="1" t="s">
         <v>43</v>
       </c>
@@ -29221,7 +29231,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="395" spans="1:23">
+    <row r="395" spans="1:23" hidden="1">
       <c r="A395" s="1" t="s">
         <v>45</v>
       </c>
@@ -29292,7 +29302,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="396" spans="1:23">
+    <row r="396" spans="1:23" hidden="1">
       <c r="A396" s="1" t="s">
         <v>46</v>
       </c>
@@ -29365,40 +29375,40 @@
     </row>
     <row r="397" spans="1:23">
       <c r="A397" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B397" s="2">
-        <v>42734</v>
+        <v>42369</v>
       </c>
       <c r="C397" s="3">
-        <v>25553342</v>
-      </c>
-      <c r="D397" s="3">
-        <v>1185</v>
+        <v>7812156</v>
+      </c>
+      <c r="D397">
+        <v>459</v>
       </c>
       <c r="E397" s="3">
-        <v>24510596</v>
+        <v>319077</v>
       </c>
       <c r="F397" s="3">
-        <v>50063938</v>
+        <v>8131233</v>
       </c>
       <c r="G397" s="3">
-        <v>14887395</v>
+        <v>2244410</v>
       </c>
       <c r="H397" s="3">
-        <v>660130</v>
+        <v>30284</v>
       </c>
       <c r="I397" s="3">
-        <v>15547525</v>
+        <v>2274694</v>
       </c>
       <c r="J397" s="3">
-        <v>34516413</v>
+        <v>5856539</v>
       </c>
       <c r="K397" s="3">
-        <v>50063938</v>
+        <v>8131233</v>
       </c>
       <c r="L397" s="3">
-        <v>8156048</v>
+        <v>1150416</v>
       </c>
       <c r="M397">
         <v>0</v>
@@ -29410,31 +29420,31 @@
         <v>0</v>
       </c>
       <c r="P397" s="3">
-        <v>8156048</v>
-      </c>
-      <c r="Q397" s="3">
-        <v>-522449</v>
+        <v>1150416</v>
+      </c>
+      <c r="Q397">
+        <v>0</v>
       </c>
       <c r="R397" s="3">
-        <v>3060937</v>
+        <v>332210</v>
       </c>
       <c r="S397">
-        <v>54.98</v>
+        <v>-57.78</v>
       </c>
       <c r="T397">
-        <v>5.62</v>
+        <v>2.86</v>
       </c>
       <c r="U397">
-        <v>6.33</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="V397">
-        <v>11.49</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="W397">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="398" spans="1:23">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="398" spans="1:23" hidden="1">
       <c r="A398" s="1" t="s">
         <v>49</v>
       </c>
@@ -29505,7 +29515,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="399" spans="1:23">
+    <row r="399" spans="1:23" hidden="1">
       <c r="A399" s="1" t="s">
         <v>50</v>
       </c>
@@ -29576,7 +29586,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="400" spans="1:23">
+    <row r="400" spans="1:23" hidden="1">
       <c r="A400" s="1" t="s">
         <v>51</v>
       </c>
@@ -29647,7 +29657,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="401" spans="1:23">
+    <row r="401" spans="1:23" hidden="1">
       <c r="A401" s="1" t="s">
         <v>52</v>
       </c>
@@ -29718,7 +29728,7 @@
         <v>12.94</v>
       </c>
     </row>
-    <row r="402" spans="1:23">
+    <row r="402" spans="1:23" hidden="1">
       <c r="A402" s="1" t="s">
         <v>53</v>
       </c>
@@ -29789,7 +29799,7 @@
         <v>-7.74</v>
       </c>
     </row>
-    <row r="403" spans="1:23">
+    <row r="403" spans="1:23" hidden="1">
       <c r="A403" s="1" t="s">
         <v>54</v>
       </c>
@@ -29860,7 +29870,7 @@
         <v>24.63</v>
       </c>
     </row>
-    <row r="404" spans="1:23">
+    <row r="404" spans="1:23" hidden="1">
       <c r="A404" s="1" t="s">
         <v>55</v>
       </c>
@@ -29931,7 +29941,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="405" spans="1:23">
+    <row r="405" spans="1:23" hidden="1">
       <c r="A405" s="1" t="s">
         <v>56</v>
       </c>
@@ -30002,7 +30012,7 @@
         <v>17.440000000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:23">
+    <row r="406" spans="1:23" hidden="1">
       <c r="A406" s="1" t="s">
         <v>57</v>
       </c>
@@ -30073,7 +30083,7 @@
         <v>16.36</v>
       </c>
     </row>
-    <row r="407" spans="1:23">
+    <row r="407" spans="1:23" hidden="1">
       <c r="A407" s="1" t="s">
         <v>58</v>
       </c>
@@ -30144,7 +30154,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="408" spans="1:23">
+    <row r="408" spans="1:23" hidden="1">
       <c r="A408" s="1" t="s">
         <v>59</v>
       </c>
@@ -30215,7 +30225,7 @@
         <v>19.04</v>
       </c>
     </row>
-    <row r="409" spans="1:23">
+    <row r="409" spans="1:23" hidden="1">
       <c r="A409" s="1" t="s">
         <v>60</v>
       </c>
@@ -30286,7 +30296,7 @@
         <v>10.77</v>
       </c>
     </row>
-    <row r="410" spans="1:23">
+    <row r="410" spans="1:23" hidden="1">
       <c r="A410" s="1" t="s">
         <v>61</v>
       </c>
@@ -30357,7 +30367,7 @@
         <v>12.03</v>
       </c>
     </row>
-    <row r="411" spans="1:23">
+    <row r="411" spans="1:23" hidden="1">
       <c r="A411" s="1" t="s">
         <v>62</v>
       </c>
@@ -30428,7 +30438,7 @@
         <v>18.28</v>
       </c>
     </row>
-    <row r="412" spans="1:23">
+    <row r="412" spans="1:23" hidden="1">
       <c r="A412" s="1" t="s">
         <v>63</v>
       </c>
@@ -30496,7 +30506,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="413" spans="1:23">
+    <row r="413" spans="1:23" hidden="1">
       <c r="A413" s="1" t="s">
         <v>65</v>
       </c>
@@ -30567,7 +30577,7 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:23">
+    <row r="414" spans="1:23" hidden="1">
       <c r="A414" s="1" t="s">
         <v>66</v>
       </c>
@@ -30638,7 +30648,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="415" spans="1:23">
+    <row r="415" spans="1:23" hidden="1">
       <c r="A415" s="1" t="s">
         <v>67</v>
       </c>
@@ -30709,7 +30719,7 @@
         <v>14.94</v>
       </c>
     </row>
-    <row r="416" spans="1:23">
+    <row r="416" spans="1:23" hidden="1">
       <c r="A416" s="1" t="s">
         <v>68</v>
       </c>
@@ -30782,40 +30792,40 @@
     </row>
     <row r="417" spans="1:23">
       <c r="A417" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B417" s="2">
-        <v>42369</v>
+        <v>42004</v>
       </c>
       <c r="C417" s="3">
-        <v>150313451</v>
-      </c>
-      <c r="D417" s="3">
-        <v>53482</v>
+        <v>7068735</v>
+      </c>
+      <c r="D417">
+        <v>244</v>
       </c>
       <c r="E417" s="3">
-        <v>59340412</v>
+        <v>616067</v>
       </c>
       <c r="F417" s="3">
-        <v>209653863</v>
+        <v>7684802</v>
       </c>
       <c r="G417" s="3">
-        <v>109830689</v>
+        <v>1696510</v>
       </c>
       <c r="H417" s="3">
-        <v>20139581</v>
+        <v>25436</v>
       </c>
       <c r="I417" s="3">
-        <v>129970270</v>
+        <v>1721946</v>
       </c>
       <c r="J417" s="3">
-        <v>79683593</v>
+        <v>5962856</v>
       </c>
       <c r="K417" s="3">
-        <v>209653863</v>
+        <v>7684802</v>
       </c>
       <c r="L417" s="3">
-        <v>23349283</v>
+        <v>1150416</v>
       </c>
       <c r="M417">
         <v>0</v>
@@ -30827,31 +30837,31 @@
         <v>0</v>
       </c>
       <c r="P417" s="3">
-        <v>23349283</v>
-      </c>
-      <c r="Q417" s="3">
-        <v>-1248722</v>
+        <v>1150416</v>
+      </c>
+      <c r="Q417">
+        <v>0</v>
       </c>
       <c r="R417" s="3">
-        <v>10006641</v>
+        <v>567365</v>
       </c>
       <c r="S417">
-        <v>28.82</v>
+        <v>-53.86</v>
       </c>
       <c r="T417">
-        <v>3.37</v>
+        <v>5.48</v>
       </c>
       <c r="U417">
-        <v>4.6100000000000003</v>
+        <v>6.37</v>
       </c>
       <c r="V417">
-        <v>12.97</v>
+        <v>18.38</v>
       </c>
       <c r="W417">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="418" spans="1:23">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="418" spans="1:23" hidden="1">
       <c r="A418" s="1" t="s">
         <v>10</v>
       </c>
@@ -30922,7 +30932,7 @@
         <v>-9.34</v>
       </c>
     </row>
-    <row r="419" spans="1:23">
+    <row r="419" spans="1:23" hidden="1">
       <c r="A419" s="1" t="s">
         <v>11</v>
       </c>
@@ -30993,7 +31003,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="420" spans="1:23">
+    <row r="420" spans="1:23" hidden="1">
       <c r="A420" s="1" t="s">
         <v>12</v>
       </c>
@@ -31064,7 +31074,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="421" spans="1:23">
+    <row r="421" spans="1:23" hidden="1">
       <c r="A421" s="1" t="s">
         <v>13</v>
       </c>
@@ -31135,7 +31145,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="422" spans="1:23">
+    <row r="422" spans="1:23" hidden="1">
       <c r="A422" s="1" t="s">
         <v>14</v>
       </c>
@@ -31206,7 +31216,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="423" spans="1:23">
+    <row r="423" spans="1:23" hidden="1">
       <c r="A423" s="1" t="s">
         <v>15</v>
       </c>
@@ -31277,7 +31287,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="424" spans="1:23">
+    <row r="424" spans="1:23" hidden="1">
       <c r="A424" s="1" t="s">
         <v>16</v>
       </c>
@@ -31348,7 +31358,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="425" spans="1:23">
+    <row r="425" spans="1:23" hidden="1">
       <c r="A425" s="1" t="s">
         <v>17</v>
       </c>
@@ -31419,7 +31429,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="426" spans="1:23">
+    <row r="426" spans="1:23" hidden="1">
       <c r="A426" s="1" t="s">
         <v>18</v>
       </c>
@@ -31490,7 +31500,7 @@
         <v>-22.38</v>
       </c>
     </row>
-    <row r="427" spans="1:23">
+    <row r="427" spans="1:23" hidden="1">
       <c r="A427" s="1" t="s">
         <v>19</v>
       </c>
@@ -31561,7 +31571,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="428" spans="1:23">
+    <row r="428" spans="1:23" hidden="1">
       <c r="A428" s="1" t="s">
         <v>20</v>
       </c>
@@ -31632,7 +31642,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="429" spans="1:23">
+    <row r="429" spans="1:23" hidden="1">
       <c r="A429" s="1" t="s">
         <v>21</v>
       </c>
@@ -31703,7 +31713,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="430" spans="1:23">
+    <row r="430" spans="1:23" hidden="1">
       <c r="A430" s="1" t="s">
         <v>22</v>
       </c>
@@ -31774,7 +31784,7 @@
         <v>-6.28</v>
       </c>
     </row>
-    <row r="431" spans="1:23">
+    <row r="431" spans="1:23" hidden="1">
       <c r="A431" s="1" t="s">
         <v>23</v>
       </c>
@@ -31845,7 +31855,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="432" spans="1:23">
+    <row r="432" spans="1:23" hidden="1">
       <c r="A432" s="1" t="s">
         <v>24</v>
       </c>
@@ -31916,7 +31926,7 @@
         <v>5.93</v>
       </c>
     </row>
-    <row r="433" spans="1:23">
+    <row r="433" spans="1:23" hidden="1">
       <c r="A433" s="1" t="s">
         <v>25</v>
       </c>
@@ -31987,7 +31997,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="434" spans="1:23">
+    <row r="434" spans="1:23" hidden="1">
       <c r="A434" s="1" t="s">
         <v>26</v>
       </c>
@@ -32058,7 +32068,7 @@
         <v>12.78</v>
       </c>
     </row>
-    <row r="435" spans="1:23">
+    <row r="435" spans="1:23" hidden="1">
       <c r="A435" s="1" t="s">
         <v>27</v>
       </c>
@@ -32129,7 +32139,7 @@
         <v>-6.04</v>
       </c>
     </row>
-    <row r="436" spans="1:23">
+    <row r="436" spans="1:23" hidden="1">
       <c r="A436" s="1" t="s">
         <v>28</v>
       </c>
@@ -32200,7 +32210,7 @@
         <v>-5.03</v>
       </c>
     </row>
-    <row r="437" spans="1:23">
+    <row r="437" spans="1:23" hidden="1">
       <c r="A437" s="1" t="s">
         <v>29</v>
       </c>
@@ -32271,7 +32281,7 @@
         <v>-14.5</v>
       </c>
     </row>
-    <row r="438" spans="1:23">
+    <row r="438" spans="1:23" hidden="1">
       <c r="A438" s="1" t="s">
         <v>30</v>
       </c>
@@ -32342,7 +32352,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="439" spans="1:23">
+    <row r="439" spans="1:23" hidden="1">
       <c r="A439" s="1" t="s">
         <v>31</v>
       </c>
@@ -32413,7 +32423,7 @@
         <v>-3.17</v>
       </c>
     </row>
-    <row r="440" spans="1:23">
+    <row r="440" spans="1:23" hidden="1">
       <c r="A440" s="1" t="s">
         <v>32</v>
       </c>
@@ -32484,7 +32494,7 @@
         <v>12.49</v>
       </c>
     </row>
-    <row r="441" spans="1:23">
+    <row r="441" spans="1:23" hidden="1">
       <c r="A441" s="1" t="s">
         <v>33</v>
       </c>
@@ -32555,7 +32565,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="442" spans="1:23">
+    <row r="442" spans="1:23" hidden="1">
       <c r="A442" s="1" t="s">
         <v>34</v>
       </c>
@@ -32626,7 +32636,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="443" spans="1:23">
+    <row r="443" spans="1:23" hidden="1">
       <c r="A443" s="1" t="s">
         <v>35</v>
       </c>
@@ -32697,7 +32707,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="444" spans="1:23">
+    <row r="444" spans="1:23" hidden="1">
       <c r="A444" s="1" t="s">
         <v>36</v>
       </c>
@@ -32768,7 +32778,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="445" spans="1:23">
+    <row r="445" spans="1:23" hidden="1">
       <c r="A445" s="1" t="s">
         <v>37</v>
       </c>
@@ -32839,7 +32849,7 @@
         <v>14.52</v>
       </c>
     </row>
-    <row r="446" spans="1:23">
+    <row r="446" spans="1:23" hidden="1">
       <c r="A446" s="1" t="s">
         <v>38</v>
       </c>
@@ -32910,7 +32920,7 @@
         <v>-11.56</v>
       </c>
     </row>
-    <row r="447" spans="1:23">
+    <row r="447" spans="1:23" hidden="1">
       <c r="A447" s="1" t="s">
         <v>39</v>
       </c>
@@ -32981,7 +32991,7 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="448" spans="1:23">
+    <row r="448" spans="1:23" hidden="1">
       <c r="A448" s="1" t="s">
         <v>40</v>
       </c>
@@ -33054,40 +33064,40 @@
     </row>
     <row r="449" spans="1:23">
       <c r="A449" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B449" s="2">
-        <v>42369</v>
+        <v>41639</v>
       </c>
       <c r="C449" s="3">
-        <v>232090337</v>
-      </c>
-      <c r="D449" s="3">
-        <v>60681</v>
+        <v>6849443</v>
+      </c>
+      <c r="D449">
+        <v>244</v>
       </c>
       <c r="E449" s="3">
-        <v>58294707</v>
+        <v>2154262</v>
       </c>
       <c r="F449" s="3">
-        <v>290385044</v>
+        <v>9003705</v>
       </c>
       <c r="G449" s="3">
-        <v>199844353</v>
+        <v>2635505</v>
       </c>
       <c r="H449" s="3">
-        <v>21323478</v>
+        <v>20560</v>
       </c>
       <c r="I449" s="3">
-        <v>221167831</v>
+        <v>2656065</v>
       </c>
       <c r="J449" s="3">
-        <v>69217213</v>
+        <v>6347640</v>
       </c>
       <c r="K449" s="3">
-        <v>290385044</v>
+        <v>9003705</v>
       </c>
       <c r="L449" s="3">
-        <v>25554824</v>
+        <v>1150416</v>
       </c>
       <c r="M449">
         <v>0</v>
@@ -33099,31 +33109,31 @@
         <v>0</v>
       </c>
       <c r="P449" s="3">
-        <v>25554824</v>
-      </c>
-      <c r="Q449" s="3">
-        <v>-2721183</v>
+        <v>1150416</v>
+      </c>
+      <c r="Q449">
+        <v>0</v>
       </c>
       <c r="R449" s="3">
-        <v>2370365</v>
+        <v>1267141</v>
       </c>
       <c r="S449">
-        <v>-64.61</v>
+        <v>2.15</v>
       </c>
       <c r="T449">
-        <v>0.2</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="U449">
-        <v>0.38</v>
+        <v>12.23</v>
       </c>
       <c r="V449">
-        <v>4.72</v>
+        <v>21.52</v>
       </c>
       <c r="W449">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="450" spans="1:23">
+        <v>11.14</v>
+      </c>
+    </row>
+    <row r="450" spans="1:23" hidden="1">
       <c r="A450" s="1" t="s">
         <v>42</v>
       </c>
@@ -33194,7 +33204,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:23">
+    <row r="451" spans="1:23" hidden="1">
       <c r="A451" s="1" t="s">
         <v>43</v>
       </c>
@@ -33267,40 +33277,40 @@
     </row>
     <row r="452" spans="1:23">
       <c r="A452" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B452" s="2">
-        <v>42369</v>
+        <v>44925</v>
       </c>
       <c r="C452" s="3">
-        <v>7812156</v>
-      </c>
-      <c r="D452">
-        <v>459</v>
+        <v>26965716</v>
+      </c>
+      <c r="D452" s="3">
+        <v>6650</v>
       </c>
       <c r="E452" s="3">
-        <v>319077</v>
+        <v>58614609</v>
       </c>
       <c r="F452" s="3">
-        <v>8131233</v>
+        <v>85580325</v>
       </c>
       <c r="G452" s="3">
-        <v>2244410</v>
+        <v>15699754</v>
       </c>
       <c r="H452" s="3">
-        <v>30284</v>
+        <v>9187840</v>
       </c>
       <c r="I452" s="3">
-        <v>2274694</v>
+        <v>24887594</v>
       </c>
       <c r="J452" s="3">
-        <v>5856539</v>
+        <v>60692731</v>
       </c>
       <c r="K452" s="3">
-        <v>8131233</v>
+        <v>85580325</v>
       </c>
       <c r="L452" s="3">
-        <v>1150416</v>
+        <v>12065568</v>
       </c>
       <c r="M452">
         <v>0</v>
@@ -33312,31 +33322,31 @@
         <v>0</v>
       </c>
       <c r="P452" s="3">
-        <v>1150416</v>
-      </c>
-      <c r="Q452">
-        <v>0</v>
+        <v>12065568</v>
+      </c>
+      <c r="Q452" s="3">
+        <v>-162874</v>
       </c>
       <c r="R452" s="3">
-        <v>332210</v>
+        <v>11338116</v>
       </c>
       <c r="S452">
-        <v>-57.78</v>
+        <v>-22.28</v>
       </c>
       <c r="T452">
-        <v>2.86</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="U452">
-        <v>4.5999999999999996</v>
+        <v>23.7</v>
       </c>
       <c r="V452">
-        <v>19.670000000000002</v>
+        <v>8.02</v>
       </c>
       <c r="W452">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="453" spans="1:23">
+        <v>-2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="453" spans="1:23" hidden="1">
       <c r="A453" s="1" t="s">
         <v>45</v>
       </c>
@@ -33407,7 +33417,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="454" spans="1:23">
+    <row r="454" spans="1:23" hidden="1">
       <c r="A454" s="1" t="s">
         <v>46</v>
       </c>
@@ -33483,37 +33493,37 @@
         <v>47</v>
       </c>
       <c r="B455" s="2">
-        <v>42369</v>
+        <v>44560</v>
       </c>
       <c r="C455" s="3">
-        <v>21840171</v>
+        <v>27591458</v>
       </c>
       <c r="D455" s="3">
-        <v>1160</v>
+        <v>7126</v>
       </c>
       <c r="E455" s="3">
-        <v>23322519</v>
+        <v>48757344</v>
       </c>
       <c r="F455" s="3">
-        <v>45162690</v>
+        <v>76348802</v>
       </c>
       <c r="G455" s="3">
-        <v>10954621</v>
+        <v>15673947</v>
       </c>
       <c r="H455" s="3">
-        <v>653660</v>
+        <v>8068490</v>
       </c>
       <c r="I455" s="3">
-        <v>11608281</v>
+        <v>23742437</v>
       </c>
       <c r="J455" s="3">
-        <v>33554409</v>
+        <v>52606365</v>
       </c>
       <c r="K455" s="3">
-        <v>45162690</v>
+        <v>76348802</v>
       </c>
       <c r="L455" s="3">
-        <v>7778113</v>
+        <v>12065568</v>
       </c>
       <c r="M455">
         <v>0</v>
@@ -33525,31 +33535,31 @@
         <v>0</v>
       </c>
       <c r="P455" s="3">
-        <v>7778113</v>
+        <v>12065568</v>
       </c>
       <c r="Q455" s="3">
-        <v>-522449</v>
+        <v>-239876</v>
       </c>
       <c r="R455" s="3">
-        <v>2014103</v>
+        <v>18702622</v>
       </c>
       <c r="S455">
-        <v>130.52000000000001</v>
+        <v>319.58999999999997</v>
       </c>
       <c r="T455">
-        <v>3.5</v>
+        <v>28.35</v>
       </c>
       <c r="U455">
-        <v>4.0199999999999996</v>
+        <v>44.33</v>
       </c>
       <c r="V455">
-        <v>11.16</v>
+        <v>10.34</v>
       </c>
       <c r="W455">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="456" spans="1:23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:23" hidden="1">
       <c r="A456" s="1" t="s">
         <v>49</v>
       </c>
@@ -33620,7 +33630,7 @@
         <v>-0.82</v>
       </c>
     </row>
-    <row r="457" spans="1:23">
+    <row r="457" spans="1:23" hidden="1">
       <c r="A457" s="1" t="s">
         <v>50</v>
       </c>
@@ -33691,7 +33701,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="458" spans="1:23">
+    <row r="458" spans="1:23" hidden="1">
       <c r="A458" s="1" t="s">
         <v>51</v>
       </c>
@@ -33762,7 +33772,7 @@
         <v>12.07</v>
       </c>
     </row>
-    <row r="459" spans="1:23">
+    <row r="459" spans="1:23" hidden="1">
       <c r="A459" s="1" t="s">
         <v>52</v>
       </c>
@@ -33833,7 +33843,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="460" spans="1:23">
+    <row r="460" spans="1:23" hidden="1">
       <c r="A460" s="1" t="s">
         <v>53</v>
       </c>
@@ -33904,7 +33914,7 @@
         <v>-10.48</v>
       </c>
     </row>
-    <row r="461" spans="1:23">
+    <row r="461" spans="1:23" hidden="1">
       <c r="A461" s="1" t="s">
         <v>54</v>
       </c>
@@ -33975,7 +33985,7 @@
         <v>18.41</v>
       </c>
     </row>
-    <row r="462" spans="1:23">
+    <row r="462" spans="1:23" hidden="1">
       <c r="A462" s="1" t="s">
         <v>55</v>
       </c>
@@ -34046,7 +34056,7 @@
         <v>8.66</v>
       </c>
     </row>
-    <row r="463" spans="1:23">
+    <row r="463" spans="1:23" hidden="1">
       <c r="A463" s="1" t="s">
         <v>56</v>
       </c>
@@ -34117,7 +34127,7 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="464" spans="1:23">
+    <row r="464" spans="1:23" hidden="1">
       <c r="A464" s="1" t="s">
         <v>57</v>
       </c>
@@ -34188,7 +34198,7 @@
         <v>13.26</v>
       </c>
     </row>
-    <row r="465" spans="1:23">
+    <row r="465" spans="1:23" hidden="1">
       <c r="A465" s="1" t="s">
         <v>58</v>
       </c>
@@ -34259,7 +34269,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="466" spans="1:23">
+    <row r="466" spans="1:23" hidden="1">
       <c r="A466" s="1" t="s">
         <v>59</v>
       </c>
@@ -34330,7 +34340,7 @@
         <v>18.079999999999998</v>
       </c>
     </row>
-    <row r="467" spans="1:23">
+    <row r="467" spans="1:23" hidden="1">
       <c r="A467" s="1" t="s">
         <v>60</v>
       </c>
@@ -34401,7 +34411,7 @@
         <v>10.74</v>
       </c>
     </row>
-    <row r="468" spans="1:23">
+    <row r="468" spans="1:23" hidden="1">
       <c r="A468" s="1" t="s">
         <v>61</v>
       </c>
@@ -34472,7 +34482,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="469" spans="1:23">
+    <row r="469" spans="1:23" hidden="1">
       <c r="A469" s="1" t="s">
         <v>62</v>
       </c>
@@ -34543,7 +34553,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="470" spans="1:23">
+    <row r="470" spans="1:23" hidden="1">
       <c r="A470" s="1" t="s">
         <v>63</v>
       </c>
@@ -34611,7 +34621,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="471" spans="1:23">
+    <row r="471" spans="1:23" hidden="1">
       <c r="A471" s="1" t="s">
         <v>65</v>
       </c>
@@ -34682,7 +34692,7 @@
         <v>22.64</v>
       </c>
     </row>
-    <row r="472" spans="1:23">
+    <row r="472" spans="1:23" hidden="1">
       <c r="A472" s="1" t="s">
         <v>66</v>
       </c>
@@ -34753,7 +34763,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="473" spans="1:23">
+    <row r="473" spans="1:23" hidden="1">
       <c r="A473" s="1" t="s">
         <v>67</v>
       </c>
@@ -34824,7 +34834,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="474" spans="1:23">
+    <row r="474" spans="1:23" hidden="1">
       <c r="A474" s="1" t="s">
         <v>68</v>
       </c>
@@ -34897,40 +34907,40 @@
     </row>
     <row r="475" spans="1:23">
       <c r="A475" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B475" s="2">
-        <v>42004</v>
+        <v>44196</v>
       </c>
       <c r="C475" s="3">
-        <v>153720896</v>
+        <v>21981509</v>
       </c>
       <c r="D475" s="3">
-        <v>58342</v>
+        <v>7245</v>
       </c>
       <c r="E475" s="3">
-        <v>62812933</v>
+        <v>35190226</v>
       </c>
       <c r="F475" s="3">
-        <v>216533829</v>
+        <v>57171735</v>
       </c>
       <c r="G475" s="3">
-        <v>120288626</v>
+        <v>12521697</v>
       </c>
       <c r="H475" s="3">
-        <v>17072565</v>
+        <v>1888543</v>
       </c>
       <c r="I475" s="3">
-        <v>137361191</v>
+        <v>14410240</v>
       </c>
       <c r="J475" s="3">
-        <v>79172638</v>
+        <v>42761495</v>
       </c>
       <c r="K475" s="3">
-        <v>216533829</v>
+        <v>57171735</v>
       </c>
       <c r="L475" s="3">
-        <v>23416737</v>
+        <v>12065568</v>
       </c>
       <c r="M475">
         <v>0</v>
@@ -34942,31 +34952,31 @@
         <v>0</v>
       </c>
       <c r="P475" s="3">
-        <v>23416737</v>
+        <v>12065568</v>
       </c>
       <c r="Q475" s="3">
-        <v>-1248722</v>
+        <v>-239876</v>
       </c>
       <c r="R475" s="3">
-        <v>7747872</v>
+        <v>2980076</v>
       </c>
       <c r="S475">
-        <v>-36.15</v>
+        <v>2.78</v>
       </c>
       <c r="T475">
-        <v>2.46</v>
+        <v>6.93</v>
       </c>
       <c r="U475">
-        <v>3.36</v>
+        <v>7.24</v>
       </c>
       <c r="V475">
-        <v>12.25</v>
+        <v>11.24</v>
       </c>
       <c r="W475">
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="476" spans="1:23">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="476" spans="1:23" hidden="1">
       <c r="A476" s="1" t="s">
         <v>10</v>
       </c>
@@ -35037,7 +35047,7 @@
         <v>-6.77</v>
       </c>
     </row>
-    <row r="477" spans="1:23">
+    <row r="477" spans="1:23" hidden="1">
       <c r="A477" s="1" t="s">
         <v>11</v>
       </c>
@@ -35108,7 +35118,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="478" spans="1:23">
+    <row r="478" spans="1:23" hidden="1">
       <c r="A478" s="1" t="s">
         <v>12</v>
       </c>
@@ -35179,7 +35189,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="479" spans="1:23">
+    <row r="479" spans="1:23" hidden="1">
       <c r="A479" s="1" t="s">
         <v>13</v>
       </c>
@@ -35250,7 +35260,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="480" spans="1:23">
+    <row r="480" spans="1:23" hidden="1">
       <c r="A480" s="1" t="s">
         <v>14</v>
       </c>
@@ -35321,7 +35331,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="481" spans="1:23">
+    <row r="481" spans="1:23" hidden="1">
       <c r="A481" s="1" t="s">
         <v>15</v>
       </c>
@@ -35392,7 +35402,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="482" spans="1:23">
+    <row r="482" spans="1:23" hidden="1">
       <c r="A482" s="1" t="s">
         <v>16</v>
       </c>
@@ -35463,7 +35473,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="483" spans="1:23">
+    <row r="483" spans="1:23" hidden="1">
       <c r="A483" s="1" t="s">
         <v>17</v>
       </c>
@@ -35534,7 +35544,7 @@
         <v>13.66</v>
       </c>
     </row>
-    <row r="484" spans="1:23">
+    <row r="484" spans="1:23" hidden="1">
       <c r="A484" s="1" t="s">
         <v>18</v>
       </c>
@@ -35605,7 +35615,7 @@
         <v>-26.44</v>
       </c>
     </row>
-    <row r="485" spans="1:23">
+    <row r="485" spans="1:23" hidden="1">
       <c r="A485" s="1" t="s">
         <v>19</v>
       </c>
@@ -35676,7 +35686,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="486" spans="1:23">
+    <row r="486" spans="1:23" hidden="1">
       <c r="A486" s="1" t="s">
         <v>20</v>
       </c>
@@ -35747,7 +35757,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="487" spans="1:23">
+    <row r="487" spans="1:23" hidden="1">
       <c r="A487" s="1" t="s">
         <v>21</v>
       </c>
@@ -35818,7 +35828,7 @@
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="488" spans="1:23">
+    <row r="488" spans="1:23" hidden="1">
       <c r="A488" s="1" t="s">
         <v>22</v>
       </c>
@@ -35889,7 +35899,7 @@
         <v>-4.72</v>
       </c>
     </row>
-    <row r="489" spans="1:23">
+    <row r="489" spans="1:23" hidden="1">
       <c r="A489" s="1" t="s">
         <v>23</v>
       </c>
@@ -35960,7 +35970,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="490" spans="1:23">
+    <row r="490" spans="1:23" hidden="1">
       <c r="A490" s="1" t="s">
         <v>24</v>
       </c>
@@ -36031,7 +36041,7 @@
         <v>6.45</v>
       </c>
     </row>
-    <row r="491" spans="1:23">
+    <row r="491" spans="1:23" hidden="1">
       <c r="A491" s="1" t="s">
         <v>25</v>
       </c>
@@ -36102,7 +36112,7 @@
         <v>15.42</v>
       </c>
     </row>
-    <row r="492" spans="1:23">
+    <row r="492" spans="1:23" hidden="1">
       <c r="A492" s="1" t="s">
         <v>26</v>
       </c>
@@ -36173,7 +36183,7 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="493" spans="1:23">
+    <row r="493" spans="1:23" hidden="1">
       <c r="A493" s="1" t="s">
         <v>27</v>
       </c>
@@ -36244,7 +36254,7 @@
         <v>-0.59</v>
       </c>
     </row>
-    <row r="494" spans="1:23">
+    <row r="494" spans="1:23" hidden="1">
       <c r="A494" s="1" t="s">
         <v>28</v>
       </c>
@@ -36315,7 +36325,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="495" spans="1:23">
+    <row r="495" spans="1:23" hidden="1">
       <c r="A495" s="1" t="s">
         <v>29</v>
       </c>
@@ -36386,7 +36396,7 @@
         <v>-6.34</v>
       </c>
     </row>
-    <row r="496" spans="1:23">
+    <row r="496" spans="1:23" hidden="1">
       <c r="A496" s="1" t="s">
         <v>30</v>
       </c>
@@ -36457,7 +36467,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="497" spans="1:23">
+    <row r="497" spans="1:23" hidden="1">
       <c r="A497" s="1" t="s">
         <v>31</v>
       </c>
@@ -36528,7 +36538,7 @@
         <v>-5.97</v>
       </c>
     </row>
-    <row r="498" spans="1:23">
+    <row r="498" spans="1:23" hidden="1">
       <c r="A498" s="1" t="s">
         <v>32</v>
       </c>
@@ -36599,7 +36609,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="499" spans="1:23">
+    <row r="499" spans="1:23" hidden="1">
       <c r="A499" s="1" t="s">
         <v>33</v>
       </c>
@@ -36670,7 +36680,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="500" spans="1:23">
+    <row r="500" spans="1:23" hidden="1">
       <c r="A500" s="1" t="s">
         <v>34</v>
       </c>
@@ -36741,7 +36751,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="501" spans="1:23">
+    <row r="501" spans="1:23" hidden="1">
       <c r="A501" s="1" t="s">
         <v>35</v>
       </c>
@@ -36812,7 +36822,7 @@
         <v>-1.94</v>
       </c>
     </row>
-    <row r="502" spans="1:23">
+    <row r="502" spans="1:23" hidden="1">
       <c r="A502" s="1" t="s">
         <v>36</v>
       </c>
@@ -36883,7 +36893,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="503" spans="1:23">
+    <row r="503" spans="1:23" hidden="1">
       <c r="A503" s="1" t="s">
         <v>37</v>
       </c>
@@ -36954,7 +36964,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="504" spans="1:23">
+    <row r="504" spans="1:23" hidden="1">
       <c r="A504" s="1" t="s">
         <v>38</v>
       </c>
@@ -37025,7 +37035,7 @@
         <v>-27.34</v>
       </c>
     </row>
-    <row r="505" spans="1:23">
+    <row r="505" spans="1:23" hidden="1">
       <c r="A505" s="1" t="s">
         <v>39</v>
       </c>
@@ -37096,7 +37106,7 @@
         <v>11.98</v>
       </c>
     </row>
-    <row r="506" spans="1:23">
+    <row r="506" spans="1:23" hidden="1">
       <c r="A506" s="1" t="s">
         <v>40</v>
       </c>
@@ -37169,40 +37179,40 @@
     </row>
     <row r="507" spans="1:23">
       <c r="A507" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B507" s="2">
-        <v>42004</v>
+        <v>43830</v>
       </c>
       <c r="C507" s="3">
-        <v>241405603</v>
+        <v>23189327</v>
       </c>
       <c r="D507" s="3">
-        <v>61518</v>
+        <v>7633</v>
       </c>
       <c r="E507" s="3">
-        <v>58164320</v>
+        <v>32221055</v>
       </c>
       <c r="F507" s="3">
-        <v>299569923</v>
+        <v>55410382</v>
       </c>
       <c r="G507" s="3">
-        <v>202857866</v>
+        <v>14102831</v>
       </c>
       <c r="H507" s="3">
-        <v>26704961</v>
+        <v>1752805</v>
       </c>
       <c r="I507" s="3">
-        <v>229562827</v>
+        <v>15855636</v>
       </c>
       <c r="J507" s="3">
-        <v>70007096</v>
+        <v>39554746</v>
       </c>
       <c r="K507" s="3">
-        <v>299569923</v>
+        <v>55410382</v>
       </c>
       <c r="L507" s="3">
-        <v>24682674</v>
+        <v>10772829</v>
       </c>
       <c r="M507">
         <v>0</v>
@@ -37214,31 +37224,31 @@
         <v>0</v>
       </c>
       <c r="P507" s="3">
-        <v>24682674</v>
-      </c>
-      <c r="Q507">
-        <v>0</v>
+        <v>10772829</v>
+      </c>
+      <c r="Q507" s="3">
+        <v>-353087</v>
       </c>
       <c r="R507" s="3">
-        <v>4844257</v>
+        <v>3082908</v>
       </c>
       <c r="S507">
-        <v>-37.6</v>
+        <v>-15.85</v>
       </c>
       <c r="T507">
-        <v>0.61</v>
+        <v>7.74</v>
       </c>
       <c r="U507">
-        <v>0.82</v>
+        <v>8.6</v>
       </c>
       <c r="V507">
-        <v>5.25</v>
+        <v>14.48</v>
       </c>
       <c r="W507">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="508" spans="1:23">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:23" hidden="1">
       <c r="A508" s="1" t="s">
         <v>42</v>
       </c>
@@ -37309,7 +37319,7 @@
         <v>15.69</v>
       </c>
     </row>
-    <row r="509" spans="1:23">
+    <row r="509" spans="1:23" hidden="1">
       <c r="A509" s="1" t="s">
         <v>43</v>
       </c>
@@ -37382,40 +37392,40 @@
     </row>
     <row r="510" spans="1:23">
       <c r="A510" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B510" s="2">
-        <v>42004</v>
+        <v>43462</v>
       </c>
       <c r="C510" s="3">
-        <v>7068735</v>
-      </c>
-      <c r="D510">
-        <v>244</v>
+        <v>19033549</v>
+      </c>
+      <c r="D510" s="3">
+        <v>6941</v>
       </c>
       <c r="E510" s="3">
-        <v>616067</v>
+        <v>29012602</v>
       </c>
       <c r="F510" s="3">
-        <v>7684802</v>
+        <v>48046151</v>
       </c>
       <c r="G510" s="3">
-        <v>1696510</v>
+        <v>9437584</v>
       </c>
       <c r="H510" s="3">
-        <v>25436</v>
+        <v>805240</v>
       </c>
       <c r="I510" s="3">
-        <v>1721946</v>
+        <v>10242824</v>
       </c>
       <c r="J510" s="3">
-        <v>5962856</v>
+        <v>37803327</v>
       </c>
       <c r="K510" s="3">
-        <v>7684802</v>
+        <v>48046151</v>
       </c>
       <c r="L510" s="3">
-        <v>1150416</v>
+        <v>9367677</v>
       </c>
       <c r="M510">
         <v>0</v>
@@ -37427,31 +37437,31 @@
         <v>0</v>
       </c>
       <c r="P510" s="3">
-        <v>1150416</v>
-      </c>
-      <c r="Q510">
-        <v>0</v>
+        <v>9367677</v>
+      </c>
+      <c r="Q510" s="3">
+        <v>-353087</v>
       </c>
       <c r="R510" s="3">
-        <v>567365</v>
+        <v>3472714</v>
       </c>
       <c r="S510">
-        <v>-53.86</v>
+        <v>27.71</v>
       </c>
       <c r="T510">
-        <v>5.48</v>
+        <v>10.72</v>
       </c>
       <c r="U510">
-        <v>6.37</v>
+        <v>11.29</v>
       </c>
       <c r="V510">
-        <v>18.38</v>
+        <v>15.57</v>
       </c>
       <c r="W510">
-        <v>6.43</v>
-      </c>
-    </row>
-    <row r="511" spans="1:23">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="511" spans="1:23" hidden="1">
       <c r="A511" s="1" t="s">
         <v>45</v>
       </c>
@@ -37522,7 +37532,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="512" spans="1:23">
+    <row r="512" spans="1:23" hidden="1">
       <c r="A512" s="1" t="s">
         <v>46</v>
       </c>
@@ -37598,37 +37608,37 @@
         <v>47</v>
       </c>
       <c r="B513" s="2">
-        <v>42004</v>
+        <v>43098</v>
       </c>
       <c r="C513" s="3">
-        <v>25753781</v>
+        <v>20499461</v>
       </c>
       <c r="D513" s="3">
-        <v>1216</v>
+        <v>6974</v>
       </c>
       <c r="E513" s="3">
-        <v>22450083</v>
+        <v>26685802</v>
       </c>
       <c r="F513" s="3">
-        <v>48203864</v>
+        <v>47185263</v>
       </c>
       <c r="G513" s="3">
-        <v>15421096</v>
+        <v>11651825</v>
       </c>
       <c r="H513" s="3">
-        <v>631149</v>
+        <v>784822</v>
       </c>
       <c r="I513" s="3">
-        <v>16052245</v>
+        <v>12436647</v>
       </c>
       <c r="J513" s="3">
-        <v>32151619</v>
+        <v>34748616</v>
       </c>
       <c r="K513" s="3">
-        <v>48203864</v>
+        <v>47185263</v>
       </c>
       <c r="L513" s="3">
-        <v>7694106</v>
+        <v>8190022</v>
       </c>
       <c r="M513">
         <v>0</v>
@@ -37640,31 +37650,31 @@
         <v>0</v>
       </c>
       <c r="P513" s="3">
-        <v>7694106</v>
+        <v>8190022</v>
       </c>
       <c r="Q513" s="3">
-        <v>-506878</v>
+        <v>-522449</v>
       </c>
       <c r="R513" s="3">
-        <v>1050823</v>
+        <v>2902288</v>
       </c>
       <c r="S513">
-        <v>33.31</v>
+        <v>-5.0599999999999996</v>
       </c>
       <c r="T513">
-        <v>1.81</v>
+        <v>5.29</v>
       </c>
       <c r="U513">
-        <v>2.5</v>
+        <v>5.95</v>
       </c>
       <c r="V513">
-        <v>13.56</v>
+        <v>11.62</v>
       </c>
       <c r="W513">
-        <v>-0.86</v>
-      </c>
-    </row>
-    <row r="514" spans="1:23">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="514" spans="1:23" hidden="1">
       <c r="A514" s="1" t="s">
         <v>49</v>
       </c>
@@ -37735,7 +37745,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="515" spans="1:23">
+    <row r="515" spans="1:23" hidden="1">
       <c r="A515" s="1" t="s">
         <v>50</v>
       </c>
@@ -37806,7 +37816,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="516" spans="1:23">
+    <row r="516" spans="1:23" hidden="1">
       <c r="A516" s="1" t="s">
         <v>51</v>
       </c>
@@ -37877,7 +37887,7 @@
         <v>13.86</v>
       </c>
     </row>
-    <row r="517" spans="1:23">
+    <row r="517" spans="1:23" hidden="1">
       <c r="A517" s="1" t="s">
         <v>52</v>
       </c>
@@ -37948,7 +37958,7 @@
         <v>6.63</v>
       </c>
     </row>
-    <row r="518" spans="1:23">
+    <row r="518" spans="1:23" hidden="1">
       <c r="A518" s="1" t="s">
         <v>53</v>
       </c>
@@ -38019,7 +38029,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="519" spans="1:23">
+    <row r="519" spans="1:23" hidden="1">
       <c r="A519" s="1" t="s">
         <v>54</v>
       </c>
@@ -38090,7 +38100,7 @@
         <v>18.21</v>
       </c>
     </row>
-    <row r="520" spans="1:23">
+    <row r="520" spans="1:23" hidden="1">
       <c r="A520" s="1" t="s">
         <v>55</v>
       </c>
@@ -38161,7 +38171,7 @@
         <v>8.59</v>
       </c>
     </row>
-    <row r="521" spans="1:23">
+    <row r="521" spans="1:23" hidden="1">
       <c r="A521" s="1" t="s">
         <v>56</v>
       </c>
@@ -38232,7 +38242,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="522" spans="1:23">
+    <row r="522" spans="1:23" hidden="1">
       <c r="A522" s="1" t="s">
         <v>57</v>
       </c>
@@ -38303,7 +38313,7 @@
         <v>12.59</v>
       </c>
     </row>
-    <row r="523" spans="1:23">
+    <row r="523" spans="1:23" hidden="1">
       <c r="A523" s="1" t="s">
         <v>58</v>
       </c>
@@ -38374,7 +38384,7 @@
         <v>-15.24</v>
       </c>
     </row>
-    <row r="524" spans="1:23">
+    <row r="524" spans="1:23" hidden="1">
       <c r="A524" s="1" t="s">
         <v>59</v>
       </c>
@@ -38445,7 +38455,7 @@
         <v>20.68</v>
       </c>
     </row>
-    <row r="525" spans="1:23">
+    <row r="525" spans="1:23" hidden="1">
       <c r="A525" s="1" t="s">
         <v>60</v>
       </c>
@@ -38516,7 +38526,7 @@
         <v>12.31</v>
       </c>
     </row>
-    <row r="526" spans="1:23">
+    <row r="526" spans="1:23" hidden="1">
       <c r="A526" s="1" t="s">
         <v>61</v>
       </c>
@@ -38587,7 +38597,7 @@
         <v>11.33</v>
       </c>
     </row>
-    <row r="527" spans="1:23">
+    <row r="527" spans="1:23" hidden="1">
       <c r="A527" s="1" t="s">
         <v>62</v>
       </c>
@@ -38655,7 +38665,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="528" spans="1:23">
+    <row r="528" spans="1:23" hidden="1">
       <c r="A528" s="1" t="s">
         <v>63</v>
       </c>
@@ -38720,7 +38730,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="529" spans="1:23">
+    <row r="529" spans="1:23" hidden="1">
       <c r="A529" s="1" t="s">
         <v>65</v>
       </c>
@@ -38791,7 +38801,7 @@
         <v>23.23</v>
       </c>
     </row>
-    <row r="530" spans="1:23">
+    <row r="530" spans="1:23" hidden="1">
       <c r="A530" s="1" t="s">
         <v>66</v>
       </c>
@@ -38862,7 +38872,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="531" spans="1:23">
+    <row r="531" spans="1:23" hidden="1">
       <c r="A531" s="1" t="s">
         <v>67</v>
       </c>
@@ -38933,7 +38943,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="532" spans="1:23">
+    <row r="532" spans="1:23" hidden="1">
       <c r="A532" s="1" t="s">
         <v>68</v>
       </c>
@@ -39006,76 +39016,76 @@
     </row>
     <row r="533" spans="1:23">
       <c r="A533" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B533" s="2">
-        <v>41639</v>
+        <v>42734</v>
       </c>
       <c r="C533" s="3">
-        <v>150430691</v>
+        <v>25553342</v>
       </c>
       <c r="D533" s="3">
-        <v>28051</v>
+        <v>1185</v>
       </c>
       <c r="E533" s="3">
-        <v>61930795</v>
+        <v>24510596</v>
       </c>
       <c r="F533" s="3">
-        <v>212361486</v>
+        <v>50063938</v>
       </c>
       <c r="G533" s="3">
-        <v>111356983</v>
+        <v>14887395</v>
       </c>
       <c r="H533" s="3">
-        <v>21767348</v>
+        <v>660130</v>
       </c>
       <c r="I533" s="3">
-        <v>133124331</v>
+        <v>15547525</v>
       </c>
       <c r="J533" s="3">
-        <v>79237155</v>
+        <v>34516413</v>
       </c>
       <c r="K533" s="3">
-        <v>212361486</v>
+        <v>50063938</v>
       </c>
       <c r="L533" s="3">
-        <v>23246552</v>
+        <v>8156048</v>
       </c>
       <c r="M533">
         <v>0</v>
       </c>
-      <c r="N533" s="3">
-        <v>29705</v>
+      <c r="N533">
+        <v>0</v>
       </c>
       <c r="O533">
         <v>0</v>
       </c>
       <c r="P533" s="3">
-        <v>23276257</v>
+        <v>8156048</v>
       </c>
       <c r="Q533" s="3">
-        <v>-1334660</v>
+        <v>-522449</v>
       </c>
       <c r="R533" s="3">
-        <v>11519779</v>
+        <v>3060937</v>
       </c>
       <c r="S533">
-        <v>-5.18</v>
+        <v>54.98</v>
       </c>
       <c r="T533">
-        <v>4.17</v>
+        <v>5.62</v>
       </c>
       <c r="U533">
-        <v>5.4</v>
+        <v>6.33</v>
       </c>
       <c r="V533">
-        <v>14.31</v>
+        <v>11.49</v>
       </c>
       <c r="W533">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="534" spans="1:23">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="534" spans="1:23" hidden="1">
       <c r="A534" s="1" t="s">
         <v>10</v>
       </c>
@@ -39146,7 +39156,7 @@
         <v>-17.29</v>
       </c>
     </row>
-    <row r="535" spans="1:23">
+    <row r="535" spans="1:23" hidden="1">
       <c r="A535" s="1" t="s">
         <v>11</v>
       </c>
@@ -39217,7 +39227,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="536" spans="1:23">
+    <row r="536" spans="1:23" hidden="1">
       <c r="A536" s="1" t="s">
         <v>12</v>
       </c>
@@ -39288,7 +39298,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="537" spans="1:23">
+    <row r="537" spans="1:23" hidden="1">
       <c r="A537" s="1" t="s">
         <v>13</v>
       </c>
@@ -39359,7 +39369,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="538" spans="1:23">
+    <row r="538" spans="1:23" hidden="1">
       <c r="A538" s="1" t="s">
         <v>14</v>
       </c>
@@ -39430,7 +39440,7 @@
         <v>-3.17</v>
       </c>
     </row>
-    <row r="539" spans="1:23">
+    <row r="539" spans="1:23" hidden="1">
       <c r="A539" s="1" t="s">
         <v>15</v>
       </c>
@@ -39501,7 +39511,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="540" spans="1:23">
+    <row r="540" spans="1:23" hidden="1">
       <c r="A540" s="1" t="s">
         <v>16</v>
       </c>
@@ -39572,7 +39582,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="541" spans="1:23">
+    <row r="541" spans="1:23" hidden="1">
       <c r="A541" s="1" t="s">
         <v>17</v>
       </c>
@@ -39643,7 +39653,7 @@
         <v>15.77</v>
       </c>
     </row>
-    <row r="542" spans="1:23">
+    <row r="542" spans="1:23" hidden="1">
       <c r="A542" s="1" t="s">
         <v>18</v>
       </c>
@@ -39714,7 +39724,7 @@
         <v>-23.82</v>
       </c>
     </row>
-    <row r="543" spans="1:23">
+    <row r="543" spans="1:23" hidden="1">
       <c r="A543" s="1" t="s">
         <v>19</v>
       </c>
@@ -39785,7 +39795,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="544" spans="1:23">
+    <row r="544" spans="1:23" hidden="1">
       <c r="A544" s="1" t="s">
         <v>20</v>
       </c>
@@ -39856,7 +39866,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="545" spans="1:23">
+    <row r="545" spans="1:23" hidden="1">
       <c r="A545" s="1" t="s">
         <v>21</v>
       </c>
@@ -39927,7 +39937,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="546" spans="1:23">
+    <row r="546" spans="1:23" hidden="1">
       <c r="A546" s="1" t="s">
         <v>22</v>
       </c>
@@ -39998,7 +40008,7 @@
         <v>-10.69</v>
       </c>
     </row>
-    <row r="547" spans="1:23">
+    <row r="547" spans="1:23" hidden="1">
       <c r="A547" s="1" t="s">
         <v>23</v>
       </c>
@@ -40069,7 +40079,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="548" spans="1:23">
+    <row r="548" spans="1:23" hidden="1">
       <c r="A548" s="1" t="s">
         <v>24</v>
       </c>
@@ -40140,7 +40150,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="549" spans="1:23">
+    <row r="549" spans="1:23" hidden="1">
       <c r="A549" s="1" t="s">
         <v>25</v>
       </c>
@@ -40211,7 +40221,7 @@
         <v>15.23</v>
       </c>
     </row>
-    <row r="550" spans="1:23">
+    <row r="550" spans="1:23" hidden="1">
       <c r="A550" s="1" t="s">
         <v>26</v>
       </c>
@@ -40282,7 +40292,7 @@
         <v>11.17</v>
       </c>
     </row>
-    <row r="551" spans="1:23">
+    <row r="551" spans="1:23" hidden="1">
       <c r="A551" s="1" t="s">
         <v>27</v>
       </c>
@@ -40353,7 +40363,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="552" spans="1:23">
+    <row r="552" spans="1:23" hidden="1">
       <c r="A552" s="1" t="s">
         <v>28</v>
       </c>
@@ -40424,7 +40434,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="553" spans="1:23">
+    <row r="553" spans="1:23" hidden="1">
       <c r="A553" s="1" t="s">
         <v>29</v>
       </c>
@@ -40495,7 +40505,7 @@
         <v>-18.510000000000002</v>
       </c>
     </row>
-    <row r="554" spans="1:23">
+    <row r="554" spans="1:23" hidden="1">
       <c r="A554" s="1" t="s">
         <v>30</v>
       </c>
@@ -40566,7 +40576,7 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="555" spans="1:23">
+    <row r="555" spans="1:23" hidden="1">
       <c r="A555" s="1" t="s">
         <v>31</v>
       </c>
@@ -40637,7 +40647,7 @@
         <v>-5.78</v>
       </c>
     </row>
-    <row r="556" spans="1:23">
+    <row r="556" spans="1:23" hidden="1">
       <c r="A556" s="1" t="s">
         <v>32</v>
       </c>
@@ -40708,7 +40718,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="557" spans="1:23">
+    <row r="557" spans="1:23" hidden="1">
       <c r="A557" s="1" t="s">
         <v>33</v>
       </c>
@@ -40779,7 +40789,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="558" spans="1:23">
+    <row r="558" spans="1:23" hidden="1">
       <c r="A558" s="1" t="s">
         <v>34</v>
       </c>
@@ -40850,7 +40860,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="559" spans="1:23">
+    <row r="559" spans="1:23" hidden="1">
       <c r="A559" s="1" t="s">
         <v>35</v>
       </c>
@@ -40921,7 +40931,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="560" spans="1:23">
+    <row r="560" spans="1:23" hidden="1">
       <c r="A560" s="1" t="s">
         <v>36</v>
       </c>
@@ -40992,7 +41002,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="561" spans="1:23">
+    <row r="561" spans="1:23" hidden="1">
       <c r="A561" s="1" t="s">
         <v>37</v>
       </c>
@@ -41063,7 +41073,7 @@
         <v>8.42</v>
       </c>
     </row>
-    <row r="562" spans="1:23">
+    <row r="562" spans="1:23" hidden="1">
       <c r="A562" s="1" t="s">
         <v>38</v>
       </c>
@@ -41134,7 +41144,7 @@
         <v>-16.12</v>
       </c>
     </row>
-    <row r="563" spans="1:23">
+    <row r="563" spans="1:23" hidden="1">
       <c r="A563" s="1" t="s">
         <v>39</v>
       </c>
@@ -41205,7 +41215,7 @@
         <v>10.23</v>
       </c>
     </row>
-    <row r="564" spans="1:23">
+    <row r="564" spans="1:23" hidden="1">
       <c r="A564" s="1" t="s">
         <v>40</v>
       </c>
@@ -41278,40 +41288,40 @@
     </row>
     <row r="565" spans="1:23">
       <c r="A565" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B565" s="2">
-        <v>41639</v>
+        <v>42369</v>
       </c>
       <c r="C565" s="3">
-        <v>216306422</v>
+        <v>21840171</v>
       </c>
       <c r="D565" s="3">
-        <v>61518</v>
+        <v>1160</v>
       </c>
       <c r="E565" s="3">
-        <v>54235352</v>
+        <v>23322519</v>
       </c>
       <c r="F565" s="3">
-        <v>270541774</v>
+        <v>45162690</v>
       </c>
       <c r="G565" s="3">
-        <v>168348939</v>
+        <v>10954621</v>
       </c>
       <c r="H565" s="3">
-        <v>35996817</v>
+        <v>653660</v>
       </c>
       <c r="I565" s="3">
-        <v>204345756</v>
+        <v>11608281</v>
       </c>
       <c r="J565" s="3">
-        <v>66196018</v>
+        <v>33554409</v>
       </c>
       <c r="K565" s="3">
-        <v>270541774</v>
+        <v>45162690</v>
       </c>
       <c r="L565" s="3">
-        <v>23781603</v>
+        <v>7778113</v>
       </c>
       <c r="M565">
         <v>0</v>
@@ -41323,31 +41333,31 @@
         <v>0</v>
       </c>
       <c r="P565" s="3">
-        <v>23781603</v>
-      </c>
-      <c r="Q565">
-        <v>0</v>
+        <v>7778113</v>
+      </c>
+      <c r="Q565" s="3">
+        <v>-522449</v>
       </c>
       <c r="R565" s="3">
-        <v>7915187</v>
+        <v>2014103</v>
       </c>
       <c r="S565">
-        <v>-20.62</v>
+        <v>130.52000000000001</v>
       </c>
       <c r="T565">
-        <v>0.92</v>
+        <v>3.5</v>
       </c>
       <c r="U565">
-        <v>1.27</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="V565">
-        <v>4.84</v>
+        <v>11.16</v>
       </c>
       <c r="W565">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="566" spans="1:23">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="566" spans="1:23" hidden="1">
       <c r="A566" s="1" t="s">
         <v>42</v>
       </c>
@@ -41418,7 +41428,7 @@
         <v>15.85</v>
       </c>
     </row>
-    <row r="567" spans="1:23">
+    <row r="567" spans="1:23" hidden="1">
       <c r="A567" s="1" t="s">
         <v>43</v>
       </c>
@@ -41491,40 +41501,40 @@
     </row>
     <row r="568" spans="1:23">
       <c r="A568" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B568" s="2">
-        <v>41639</v>
+        <v>42004</v>
       </c>
       <c r="C568" s="3">
-        <v>6849443</v>
-      </c>
-      <c r="D568">
-        <v>244</v>
+        <v>25753781</v>
+      </c>
+      <c r="D568" s="3">
+        <v>1216</v>
       </c>
       <c r="E568" s="3">
-        <v>2154262</v>
+        <v>22450083</v>
       </c>
       <c r="F568" s="3">
-        <v>9003705</v>
+        <v>48203864</v>
       </c>
       <c r="G568" s="3">
-        <v>2635505</v>
+        <v>15421096</v>
       </c>
       <c r="H568" s="3">
-        <v>20560</v>
+        <v>631149</v>
       </c>
       <c r="I568" s="3">
-        <v>2656065</v>
+        <v>16052245</v>
       </c>
       <c r="J568" s="3">
-        <v>6347640</v>
+        <v>32151619</v>
       </c>
       <c r="K568" s="3">
-        <v>9003705</v>
+        <v>48203864</v>
       </c>
       <c r="L568" s="3">
-        <v>1150416</v>
+        <v>7694106</v>
       </c>
       <c r="M568">
         <v>0</v>
@@ -41536,31 +41546,31 @@
         <v>0</v>
       </c>
       <c r="P568" s="3">
-        <v>1150416</v>
-      </c>
-      <c r="Q568">
-        <v>0</v>
+        <v>7694106</v>
+      </c>
+      <c r="Q568" s="3">
+        <v>-506878</v>
       </c>
       <c r="R568" s="3">
-        <v>1267141</v>
+        <v>1050823</v>
       </c>
       <c r="S568">
-        <v>2.15</v>
+        <v>33.31</v>
       </c>
       <c r="T568">
-        <v>10.210000000000001</v>
+        <v>1.81</v>
       </c>
       <c r="U568">
-        <v>12.23</v>
+        <v>2.5</v>
       </c>
       <c r="V568">
-        <v>21.52</v>
+        <v>13.56</v>
       </c>
       <c r="W568">
-        <v>11.14</v>
-      </c>
-    </row>
-    <row r="569" spans="1:23">
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="569" spans="1:23" hidden="1">
       <c r="A569" s="1" t="s">
         <v>45</v>
       </c>
@@ -41631,7 +41641,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="570" spans="1:23">
+    <row r="570" spans="1:23" hidden="1">
       <c r="A570" s="1" t="s">
         <v>46</v>
       </c>
@@ -41773,7 +41783,7 @@
         <v>-1.0900000000000001</v>
       </c>
     </row>
-    <row r="572" spans="1:23">
+    <row r="572" spans="1:23" hidden="1">
       <c r="A572" s="1" t="s">
         <v>49</v>
       </c>
@@ -41844,7 +41854,7 @@
         <v>9.93</v>
       </c>
     </row>
-    <row r="573" spans="1:23">
+    <row r="573" spans="1:23" hidden="1">
       <c r="A573" s="1" t="s">
         <v>50</v>
       </c>
@@ -41915,7 +41925,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="574" spans="1:23">
+    <row r="574" spans="1:23" hidden="1">
       <c r="A574" s="1" t="s">
         <v>51</v>
       </c>
@@ -41986,7 +41996,7 @@
         <v>4.42</v>
       </c>
     </row>
-    <row r="575" spans="1:23">
+    <row r="575" spans="1:23" hidden="1">
       <c r="A575" s="1" t="s">
         <v>52</v>
       </c>
@@ -42057,7 +42067,7 @@
         <v>8.89</v>
       </c>
     </row>
-    <row r="576" spans="1:23">
+    <row r="576" spans="1:23" hidden="1">
       <c r="A576" s="1" t="s">
         <v>53</v>
       </c>
@@ -42128,7 +42138,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="577" spans="1:23">
+    <row r="577" spans="1:23" hidden="1">
       <c r="A577" s="1" t="s">
         <v>54</v>
       </c>
@@ -42199,7 +42209,7 @@
         <v>15.71</v>
       </c>
     </row>
-    <row r="578" spans="1:23">
+    <row r="578" spans="1:23" hidden="1">
       <c r="A578" s="1" t="s">
         <v>55</v>
       </c>
@@ -42270,7 +42280,7 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="579" spans="1:23">
+    <row r="579" spans="1:23" hidden="1">
       <c r="A579" s="1" t="s">
         <v>56</v>
       </c>
@@ -42341,7 +42351,7 @@
         <v>22.36</v>
       </c>
     </row>
-    <row r="580" spans="1:23">
+    <row r="580" spans="1:23" hidden="1">
       <c r="A580" s="1" t="s">
         <v>57</v>
       </c>
@@ -42412,7 +42422,7 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="581" spans="1:23">
+    <row r="581" spans="1:23" hidden="1">
       <c r="A581" s="1" t="s">
         <v>58</v>
       </c>
@@ -42483,7 +42493,7 @@
         <v>-4.95</v>
       </c>
     </row>
-    <row r="582" spans="1:23">
+    <row r="582" spans="1:23" hidden="1">
       <c r="A582" s="1" t="s">
         <v>59</v>
       </c>
@@ -42554,7 +42564,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="583" spans="1:23">
+    <row r="583" spans="1:23" hidden="1">
       <c r="A583" s="1" t="s">
         <v>60</v>
       </c>
@@ -42625,7 +42635,7 @@
         <v>13.26</v>
       </c>
     </row>
-    <row r="584" spans="1:23">
+    <row r="584" spans="1:23" hidden="1">
       <c r="A584" s="1" t="s">
         <v>61</v>
       </c>
@@ -42690,7 +42700,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="585" spans="1:23">
+    <row r="585" spans="1:23" hidden="1">
       <c r="A585" s="1" t="s">
         <v>62</v>
       </c>
@@ -42755,7 +42765,7 @@
         <v>-0.81</v>
       </c>
     </row>
-    <row r="586" spans="1:23">
+    <row r="586" spans="1:23" hidden="1">
       <c r="A586" s="1" t="s">
         <v>63</v>
       </c>
@@ -42805,7 +42815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:23">
+    <row r="587" spans="1:23" hidden="1">
       <c r="A587" s="1" t="s">
         <v>65</v>
       </c>
@@ -42876,7 +42886,7 @@
         <v>21.87</v>
       </c>
     </row>
-    <row r="588" spans="1:23">
+    <row r="588" spans="1:23" hidden="1">
       <c r="A588" s="1" t="s">
         <v>66</v>
       </c>
@@ -42947,7 +42957,7 @@
         <v>-0.43</v>
       </c>
     </row>
-    <row r="589" spans="1:23">
+    <row r="589" spans="1:23" hidden="1">
       <c r="A589" s="1" t="s">
         <v>67</v>
       </c>
@@ -43018,7 +43028,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="590" spans="1:23" ht="16" thickBot="1">
+    <row r="590" spans="1:23" ht="16" hidden="1" thickBot="1">
       <c r="A590" s="5" t="s">
         <v>68</v>
       </c>
@@ -43090,6 +43100,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W590" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2301 光寶科"/>
+        <filter val="3231 緯創"/>
+        <filter val="3515 華擎"/>
+        <filter val="3706 神達"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W571">
+      <sortCondition ref="A1:A590"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
